--- a/output/cáritas.xlsx
+++ b/output/cáritas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="405">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -22,25 +22,25 @@
     <t>ONU</t>
   </si>
   <si>
-    <t>Gross_National_Income</t>
+    <t>GDP</t>
   </si>
   <si>
     <t>Public_Grant</t>
   </si>
   <si>
-    <t>NGO_Country_Budget_Previous_Year</t>
+    <t>Budget_Previous_Year</t>
   </si>
   <si>
-    <t>Vision_ONGD_LatinAmerica</t>
+    <t>LatinAmerica</t>
   </si>
   <si>
-    <t>Vision_ONGD_Africa</t>
+    <t>Africa</t>
   </si>
   <si>
-    <t>Vision_ONGD_Confessional</t>
+    <t>Confessional</t>
   </si>
   <si>
-    <t>Vision_ONGD_Universal</t>
+    <t>Universal</t>
   </si>
   <si>
     <t>Public_Funds_MAE</t>
@@ -109,16 +109,16 @@
     <t>Voluntarios_Extranjero</t>
   </si>
   <si>
-    <t>Total_subvencion_en_el_Pais_y_Anyo</t>
+    <t>Donor_Aid_Budget</t>
   </si>
   <si>
-    <t>Total_Fondos</t>
+    <t>Total_Funds</t>
   </si>
   <si>
-    <t>Proporcion_Fondos_Privados</t>
+    <t>%_Private_Funds</t>
   </si>
   <si>
-    <t>Proporcion_Fondos_MAE</t>
+    <t>%_MAE_Funds</t>
   </si>
   <si>
     <t>Anyo_ONG</t>
@@ -130,7 +130,7 @@
     <t>Colony</t>
   </si>
   <si>
-    <t>Delegacion</t>
+    <t>Delegation</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -413,9 +413,6 @@
   </si>
   <si>
     <t>2011_somalia</t>
-  </si>
-  <si>
-    <t>..</t>
   </si>
   <si>
     <t>2011_ruanda</t>
@@ -1714,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4280</v>
+        <v>3928.450391496945</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1836,7 +1833,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>3170</v>
+        <v>3549.578602806122</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1958,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3330</v>
+        <v>3137.346097749885</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -2080,7 +2077,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>730</v>
+        <v>748.2960604568028</v>
       </c>
       <c r="D5">
         <v>335808</v>
@@ -2202,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1620</v>
+        <v>1909.084588129339</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2324,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>8320</v>
+        <v>10594.98659239237</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2446,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6750</v>
+        <v>6726.886926609853</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2568,7 +2565,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>550</v>
+        <v>615.6909235296019</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2690,7 +2687,7 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>200</v>
+        <v>230.1925985087712</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2812,7 +2809,7 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>700</v>
+        <v>752.7964806390332</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2934,7 +2931,7 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>830</v>
+        <v>812.7113189197227</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -3056,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3680</v>
+        <v>4132.902312418774</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -3178,7 +3175,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5130</v>
+        <v>6128.19547247793</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -3300,7 +3297,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6490</v>
+        <v>7854.952374701078</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -3422,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5520</v>
+        <v>5596.139681459835</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -3544,7 +3541,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4060</v>
+        <v>4547.50930098406</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -3666,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>2120</v>
+        <v>2565.769164761619</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -3788,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>2820</v>
+        <v>2934.187009790061</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -3910,7 +3907,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>480</v>
+        <v>498.5343490798339</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -4032,7 +4029,7 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>340</v>
+        <v>312.0338494435377</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -4154,7 +4151,7 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>2260</v>
+        <v>2100.656463590606</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -4276,7 +4273,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>2930</v>
+        <v>3020.998724742883</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -4398,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>2620</v>
+        <v>2870.311589353206</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -4520,7 +4517,7 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>12530</v>
+        <v>19868.07076233724</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -4642,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>680</v>
+        <v>697.6889104500298</v>
       </c>
       <c r="D26">
         <v>293708</v>
@@ -4744,7 +4741,7 @@
         <v>0</v>
       </c>
       <c r="AL26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM26">
         <v>1</v>
@@ -4764,7 +4761,7 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>1620</v>
+        <v>1873.394108966653</v>
       </c>
       <c r="D27">
         <v>461151</v>
@@ -4886,7 +4883,7 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>1120</v>
+        <v>1268.249210347625</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -5008,7 +5005,7 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>2150</v>
+        <v>2979.004713899616</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -5130,7 +5127,7 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>4160</v>
+        <v>4493.184126335917</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -5252,7 +5249,7 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>900</v>
+        <v>902.1245458675693</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -5374,7 +5371,7 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>670</v>
+        <v>696.0780535734716</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -5496,7 +5493,7 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>2880</v>
+        <v>2771.04675450926</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -5618,7 +5615,7 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <v>1120</v>
+        <v>1616.415387445444</v>
       </c>
       <c r="D34">
         <v>443446</v>
@@ -5740,7 +5737,7 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>8820</v>
+        <v>8947.741473873051</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -5862,7 +5859,7 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>1790</v>
+        <v>2527.958361098119</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -5984,7 +5981,7 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <v>490</v>
+        <v>454.7816761914596</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -6106,7 +6103,7 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>1380</v>
+        <v>1460.056109840828</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -6228,7 +6225,7 @@
         <v>1</v>
       </c>
       <c r="C39">
-        <v>330</v>
+        <v>453.6251559191855</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -6350,7 +6347,7 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>1010</v>
+        <v>993.3829437244538</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -6472,7 +6469,7 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>3970</v>
+        <v>4729.735976516416</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -6716,7 +6713,7 @@
         <v>1</v>
       </c>
       <c r="C43">
-        <v>480</v>
+        <v>472.0931802577628</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -6838,7 +6835,7 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>4940</v>
+        <v>5191.140356354663</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -6940,7 +6937,7 @@
         <v>0</v>
       </c>
       <c r="AL44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM44">
         <v>1</v>
@@ -6960,7 +6957,7 @@
         <v>1</v>
       </c>
       <c r="C45">
-        <v>520</v>
+        <v>585.4617218876326</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -7082,7 +7079,7 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>9230</v>
+        <v>10219.8942412012</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -7204,7 +7201,7 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>2990</v>
+        <v>3576.145316377113</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -7326,7 +7323,7 @@
         <v>1</v>
       </c>
       <c r="C48">
-        <v>1340</v>
+        <v>1270.564199846867</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -7448,7 +7445,7 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>6474.166666666667</v>
+        <v>5741.405300355145</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -7570,7 +7567,7 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>2010</v>
+        <v>2609.688011589589</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -7692,7 +7689,7 @@
         <v>1</v>
       </c>
       <c r="C51">
-        <v>1180</v>
+        <v>1443.09135614876</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -7814,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>4140</v>
+        <v>4744.762791189912</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -7936,7 +7933,7 @@
         <v>0</v>
       </c>
       <c r="C53">
-        <v>670</v>
+        <v>719.723078440627</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -8180,7 +8177,7 @@
         <v>0</v>
       </c>
       <c r="C55">
-        <v>2840</v>
+        <v>2844.32123372086</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -8302,7 +8299,7 @@
         <v>0</v>
       </c>
       <c r="C56">
-        <v>420</v>
+        <v>803.2220286479591</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -8424,7 +8421,7 @@
         <v>1</v>
       </c>
       <c r="C57">
-        <v>510</v>
+        <v>543.303041863931</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -8546,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="C58">
-        <v>3110</v>
+        <v>3233.29594347421</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -8668,7 +8665,7 @@
         <v>0</v>
       </c>
       <c r="C59">
-        <v>5400</v>
+        <v>5842.805783585763</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -8790,7 +8787,7 @@
         <v>0</v>
       </c>
       <c r="C60">
-        <v>3470</v>
+        <v>3218.372706605634</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -8912,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="C61">
-        <v>920</v>
+        <v>749.5527110158416</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -9034,7 +9031,7 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>4580</v>
+        <v>5076.340174387075</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -9156,7 +9153,7 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>1030</v>
+        <v>987.4097230439231</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -9278,7 +9275,7 @@
         <v>1</v>
       </c>
       <c r="C64">
-        <v>540</v>
+        <v>592.4010974509293</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -9400,7 +9397,7 @@
         <v>1</v>
       </c>
       <c r="C65">
-        <v>850</v>
+        <v>979.0516300049418</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -9522,7 +9519,7 @@
         <v>0</v>
       </c>
       <c r="C66">
-        <v>2530</v>
+        <v>3122.362815216495</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -9644,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="C67">
-        <v>2460</v>
+        <v>2217.474008566157</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -9766,7 +9763,7 @@
         <v>1</v>
       </c>
       <c r="C68">
-        <v>750</v>
+        <v>785.5022828741129</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -9888,7 +9885,7 @@
         <v>1</v>
       </c>
       <c r="C69">
-        <v>800</v>
+        <v>781.1535935570469</v>
       </c>
       <c r="D69">
         <v>335808</v>
@@ -10010,7 +10007,7 @@
         <v>0</v>
       </c>
       <c r="C70">
-        <v>2980</v>
+        <v>2965.13971520617</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -10132,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="C71">
-        <v>10430</v>
+        <v>10672.389245603</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -10254,7 +10251,7 @@
         <v>0</v>
       </c>
       <c r="C72">
-        <v>6278.333333333333</v>
+        <v>5814.327715027426</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -10376,7 +10373,7 @@
         <v>0</v>
       </c>
       <c r="C73">
-        <v>9980</v>
+        <v>10674.9957825675</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -10498,7 +10495,7 @@
         <v>0</v>
       </c>
       <c r="C74">
-        <v>8610</v>
+        <v>8209.919456216903</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -10620,7 +10617,7 @@
         <v>0</v>
       </c>
       <c r="C75">
-        <v>1910</v>
+        <v>2437.529978424225</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -10742,7 +10739,7 @@
         <v>0</v>
       </c>
       <c r="C76">
-        <v>6980</v>
+        <v>6809.89898414354</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -10864,7 +10861,7 @@
         <v>0</v>
       </c>
       <c r="C77">
-        <v>4960</v>
+        <v>4635.517779317834</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -10986,7 +10983,7 @@
         <v>0</v>
       </c>
       <c r="C78">
-        <v>4360</v>
+        <v>4094.350334420203</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -11108,7 +11105,7 @@
         <v>1</v>
       </c>
       <c r="C79">
-        <v>500</v>
+        <v>492.3430015592067</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -11352,7 +11349,7 @@
         <v>1</v>
       </c>
       <c r="C81">
-        <v>3420</v>
+        <v>3579.960081455846</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -11474,7 +11471,7 @@
         <v>1</v>
       </c>
       <c r="C82">
-        <v>880</v>
+        <v>863.7612548677739</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -11596,7 +11593,7 @@
         <v>0</v>
       </c>
       <c r="C83">
-        <v>3000</v>
+        <v>2948.84548976845</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -11718,7 +11715,7 @@
         <v>0</v>
       </c>
       <c r="C84">
-        <v>4690</v>
+        <v>4539.002521388361</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -11840,7 +11837,7 @@
         <v>1</v>
       </c>
       <c r="C85">
-        <v>1310</v>
+        <v>1263.452411343738</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -11962,7 +11959,7 @@
         <v>0</v>
       </c>
       <c r="C86">
-        <v>1120</v>
+        <v>1132.548400540401</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -12084,7 +12081,7 @@
         <v>1</v>
       </c>
       <c r="C87">
-        <v>800</v>
+        <v>1037.747039954749</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -12206,7 +12203,7 @@
         <v>1</v>
       </c>
       <c r="C88">
-        <v>1240</v>
+        <v>1629.435089125503</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -12328,7 +12325,7 @@
         <v>1</v>
       </c>
       <c r="C89">
-        <v>360</v>
+        <v>466.0709276378625</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -12450,7 +12447,7 @@
         <v>1</v>
       </c>
       <c r="C90">
-        <v>730</v>
+        <v>711.1128122770988</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -12572,7 +12569,7 @@
         <v>1</v>
       </c>
       <c r="C91">
-        <v>600</v>
+        <v>670.2645481663891</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -12694,7 +12691,7 @@
         <v>1</v>
       </c>
       <c r="C92">
-        <v>1480</v>
+        <v>1591.56825353313</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -12815,8 +12812,8 @@
       <c r="B93">
         <v>1</v>
       </c>
-      <c r="C93" t="s">
-        <v>133</v>
+      <c r="C93">
+        <v>0</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -12932,13 +12929,13 @@
     </row>
     <row r="94" spans="1:41">
       <c r="A94" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B94">
         <v>1</v>
       </c>
       <c r="C94">
-        <v>620</v>
+        <v>644.763840173281</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -13054,13 +13051,13 @@
     </row>
     <row r="95" spans="1:41">
       <c r="A95" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
       <c r="C95">
-        <v>990</v>
+        <v>982.980837581714</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -13176,13 +13173,13 @@
     </row>
     <row r="96" spans="1:41">
       <c r="A96" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B96">
         <v>1</v>
       </c>
       <c r="C96">
-        <v>390</v>
+        <v>369.2024078290272</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -13298,13 +13295,13 @@
     </row>
     <row r="97" spans="1:41">
       <c r="A97" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B97">
         <v>1</v>
       </c>
       <c r="C97">
-        <v>720</v>
+        <v>537.4913682903079</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -13420,13 +13417,13 @@
     </row>
     <row r="98" spans="1:41">
       <c r="A98" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B98">
         <v>1</v>
       </c>
-      <c r="C98" t="s">
-        <v>133</v>
+      <c r="C98">
+        <v>0</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -13542,13 +13539,13 @@
     </row>
     <row r="99" spans="1:41">
       <c r="A99" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B99">
         <v>1</v>
       </c>
       <c r="C99">
-        <v>230</v>
+        <v>235.9887666597866</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -13664,13 +13661,13 @@
     </row>
     <row r="100" spans="1:41">
       <c r="A100" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
       <c r="C100">
-        <v>2860</v>
+        <v>2965.153206179127</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -13786,13 +13783,13 @@
     </row>
     <row r="101" spans="1:41">
       <c r="A101" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
       <c r="C101">
-        <v>710</v>
+        <v>691.8942672110555</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -13894,7 +13891,7 @@
         <v>0</v>
       </c>
       <c r="AL101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM101">
         <v>1</v>
@@ -13908,13 +13905,13 @@
     </row>
     <row r="102" spans="1:41">
       <c r="A102" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
       <c r="C102">
-        <v>1860</v>
+        <v>1939.33862702996</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -14030,13 +14027,13 @@
     </row>
     <row r="103" spans="1:41">
       <c r="A103" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
       <c r="C103">
-        <v>5930</v>
+        <v>5885.254624554112</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -14152,13 +14149,13 @@
     </row>
     <row r="104" spans="1:41">
       <c r="A104" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
-        <v>5540</v>
+        <v>5660.517066940175</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -14260,7 +14257,7 @@
         <v>0</v>
       </c>
       <c r="AL104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM104">
         <v>1</v>
@@ -14274,13 +14271,13 @@
     </row>
     <row r="105" spans="1:41">
       <c r="A105" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B105">
         <v>0</v>
       </c>
       <c r="C105">
-        <v>1570</v>
+        <v>1577.487171555845</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -14396,13 +14393,13 @@
     </row>
     <row r="106" spans="1:41">
       <c r="A106" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B106">
         <v>0</v>
       </c>
       <c r="C106">
-        <v>9310</v>
+        <v>9477.887185090232</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -14518,13 +14515,13 @@
     </row>
     <row r="107" spans="1:41">
       <c r="A107" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
       <c r="C107">
-        <v>3060</v>
+        <v>3083.80337578809</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -14640,13 +14637,13 @@
     </row>
     <row r="108" spans="1:41">
       <c r="A108" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B108">
         <v>0</v>
       </c>
       <c r="C108">
-        <v>8000</v>
+        <v>8390.479071096475</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -14762,13 +14759,13 @@
     </row>
     <row r="109" spans="1:41">
       <c r="A109" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
       <c r="C109">
-        <v>12060</v>
+        <v>12574.90356995006</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -14884,13 +14881,13 @@
     </row>
     <row r="110" spans="1:41">
       <c r="A110" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
       <c r="C110">
-        <v>4970</v>
+        <v>5360.226632400601</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -15006,13 +15003,13 @@
     </row>
     <row r="111" spans="1:41">
       <c r="A111" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B111">
         <v>0</v>
       </c>
       <c r="C111">
-        <v>4870</v>
+        <v>4921.848409120176</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -15128,13 +15125,13 @@
     </row>
     <row r="112" spans="1:41">
       <c r="A112" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B112">
         <v>0</v>
       </c>
       <c r="C112">
-        <v>6320</v>
+        <v>6711.616186806423</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -15250,13 +15247,13 @@
     </row>
     <row r="113" spans="1:41">
       <c r="A113" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B113">
         <v>0</v>
       </c>
       <c r="C113">
-        <v>12340</v>
+        <v>13455.83781255333</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -15372,13 +15369,13 @@
     </row>
     <row r="114" spans="1:41">
       <c r="A114" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B114">
         <v>0</v>
       </c>
       <c r="C114">
-        <v>11080</v>
+        <v>11627.81065059172</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -15494,13 +15491,13 @@
     </row>
     <row r="115" spans="1:41">
       <c r="A115" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B115">
         <v>0</v>
       </c>
       <c r="C115">
-        <v>1990</v>
+        <v>2024.117324382548</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -15616,13 +15613,13 @@
     </row>
     <row r="116" spans="1:41">
       <c r="A116" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B116">
         <v>0</v>
       </c>
       <c r="C116">
-        <v>5490</v>
+        <v>5676.450413340953</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -15738,13 +15735,13 @@
     </row>
     <row r="117" spans="1:41">
       <c r="A117" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B117">
         <v>0</v>
       </c>
       <c r="C117">
-        <v>3530</v>
+        <v>3370.551103400789</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -15860,13 +15857,13 @@
     </row>
     <row r="118" spans="1:41">
       <c r="A118" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B118">
         <v>0</v>
       </c>
       <c r="C118">
-        <v>1090</v>
+        <v>992.8781394745556</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -15982,13 +15979,13 @@
     </row>
     <row r="119" spans="1:41">
       <c r="A119" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B119">
         <v>1</v>
       </c>
       <c r="C119">
-        <v>1010</v>
+        <v>1025.892297838403</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -16104,13 +16101,13 @@
     </row>
     <row r="120" spans="1:41">
       <c r="A120" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B120">
         <v>0</v>
       </c>
       <c r="C120">
-        <v>3010</v>
+        <v>3270.619489853285</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -16226,13 +16223,13 @@
     </row>
     <row r="121" spans="1:41">
       <c r="A121" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B121">
         <v>0</v>
       </c>
       <c r="C121">
-        <v>1360</v>
+        <v>1410.426304742003</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -16348,13 +16345,13 @@
     </row>
     <row r="122" spans="1:41">
       <c r="A122" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B122">
         <v>0</v>
       </c>
       <c r="C122">
-        <v>2610</v>
+        <v>2264.394087033834</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -16470,13 +16467,13 @@
     </row>
     <row r="123" spans="1:41">
       <c r="A123" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B123">
         <v>1</v>
       </c>
       <c r="C123">
-        <v>810</v>
+        <v>827.7770138231788</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -16592,13 +16589,13 @@
     </row>
     <row r="124" spans="1:41">
       <c r="A124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B124">
         <v>1</v>
       </c>
       <c r="C124">
-        <v>890</v>
+        <v>822.1883388417289</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -16714,13 +16711,13 @@
     </row>
     <row r="125" spans="1:41">
       <c r="A125" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B125">
         <v>0</v>
       </c>
       <c r="C125">
-        <v>3110</v>
+        <v>3138.46513682261</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -16836,13 +16833,13 @@
     </row>
     <row r="126" spans="1:41">
       <c r="A126" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B126">
         <v>0</v>
       </c>
       <c r="C126">
-        <v>11230</v>
+        <v>11678.13078702468</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -16958,13 +16955,13 @@
     </row>
     <row r="127" spans="1:41">
       <c r="A127" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B127">
         <v>0</v>
       </c>
       <c r="C127">
-        <v>6379.166666666667</v>
+        <v>5981.277566091532</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -17080,13 +17077,13 @@
     </row>
     <row r="128" spans="1:41">
       <c r="A128" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B128">
         <v>0</v>
       </c>
       <c r="C128">
-        <v>11070</v>
+        <v>11125.3445917131</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -17202,13 +17199,13 @@
     </row>
     <row r="129" spans="1:41">
       <c r="A129" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B129">
         <v>0</v>
       </c>
       <c r="C129">
-        <v>8620</v>
+        <v>8415.999185225515</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -17324,13 +17321,13 @@
     </row>
     <row r="130" spans="1:41">
       <c r="A130" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B130">
         <v>0</v>
       </c>
       <c r="C130">
-        <v>2190</v>
+        <v>2580.841309585291</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -17446,13 +17443,13 @@
     </row>
     <row r="131" spans="1:41">
       <c r="A131" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B131">
         <v>0</v>
       </c>
       <c r="C131">
-        <v>13210</v>
+        <v>12967.15096313995</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -17568,13 +17565,13 @@
     </row>
     <row r="132" spans="1:41">
       <c r="A132" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B132">
         <v>0</v>
       </c>
       <c r="C132">
-        <v>7220</v>
+        <v>7014.835624747019</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -17690,13 +17687,13 @@
     </row>
     <row r="133" spans="1:41">
       <c r="A133" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B133">
         <v>0</v>
       </c>
       <c r="C133">
-        <v>5010</v>
+        <v>4734.214559592758</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -17812,13 +17809,13 @@
     </row>
     <row r="134" spans="1:41">
       <c r="A134" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B134">
         <v>0</v>
       </c>
       <c r="C134">
-        <v>4410</v>
+        <v>4209.874800894355</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -17934,7 +17931,7 @@
     </row>
     <row r="135" spans="1:41">
       <c r="A135" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -18056,13 +18053,13 @@
     </row>
     <row r="136" spans="1:41">
       <c r="A136" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B136">
         <v>0</v>
       </c>
       <c r="C136">
-        <v>7580</v>
+        <v>7453.823475007535</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -18178,13 +18175,13 @@
     </row>
     <row r="137" spans="1:41">
       <c r="A137" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B137">
         <v>0</v>
       </c>
       <c r="C137">
-        <v>4970</v>
+        <v>4848.442398677852</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -18300,13 +18297,13 @@
     </row>
     <row r="138" spans="1:41">
       <c r="A138" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B138">
         <v>0</v>
       </c>
       <c r="C138">
-        <v>2970</v>
+        <v>2379.668184479739</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -18422,13 +18419,13 @@
     </row>
     <row r="139" spans="1:41">
       <c r="A139" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B139">
         <v>0</v>
       </c>
       <c r="C139">
-        <v>5520</v>
+        <v>5437.877690816224</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -18544,13 +18541,13 @@
     </row>
     <row r="140" spans="1:41">
       <c r="A140" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B140">
         <v>1</v>
       </c>
       <c r="C140">
-        <v>880</v>
+        <v>873.9492833067068</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -18666,13 +18663,13 @@
     </row>
     <row r="141" spans="1:41">
       <c r="A141" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B141">
         <v>1</v>
       </c>
       <c r="C141">
-        <v>970</v>
+        <v>865.7498910537106</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -18788,13 +18785,13 @@
     </row>
     <row r="142" spans="1:41">
       <c r="A142" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B142">
         <v>0</v>
       </c>
       <c r="C142">
-        <v>3580</v>
+        <v>3421.273520448287</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -18910,13 +18907,13 @@
     </row>
     <row r="143" spans="1:41">
       <c r="A143" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B143">
         <v>0</v>
       </c>
       <c r="C143">
-        <v>1480</v>
+        <v>1469.177610078392</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -19032,13 +19029,13 @@
     </row>
     <row r="144" spans="1:41">
       <c r="A144" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B144">
         <v>0</v>
       </c>
       <c r="C144">
-        <v>1200</v>
+        <v>1006.07328865598</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -19154,13 +19151,13 @@
     </row>
     <row r="145" spans="1:41">
       <c r="A145" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B145">
         <v>1</v>
       </c>
       <c r="C145">
-        <v>1130</v>
+        <v>1092.056509329383</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -19276,13 +19273,13 @@
     </row>
     <row r="146" spans="1:41">
       <c r="A146" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B146">
         <v>0</v>
       </c>
       <c r="C146">
-        <v>3500</v>
+        <v>3153.7354536996</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -19398,13 +19395,13 @@
     </row>
     <row r="147" spans="1:41">
       <c r="A147" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B147">
         <v>0</v>
       </c>
       <c r="C147">
-        <v>3880</v>
+        <v>3603.595848188632</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -19520,13 +19517,13 @@
     </row>
     <row r="148" spans="1:41">
       <c r="A148" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B148">
         <v>0</v>
       </c>
       <c r="C148">
-        <v>6165.833333333333</v>
+        <v>5954.440409623378</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -19642,13 +19639,13 @@
     </row>
     <row r="149" spans="1:41">
       <c r="A149" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B149">
         <v>0</v>
       </c>
       <c r="C149">
-        <v>7420</v>
+        <v>7081.026150626784</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -19764,13 +19761,13 @@
     </row>
     <row r="150" spans="1:41">
       <c r="A150" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B150">
         <v>0</v>
       </c>
       <c r="C150">
-        <v>11870</v>
+        <v>12039.29569146577</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -19886,13 +19883,13 @@
     </row>
     <row r="151" spans="1:41">
       <c r="A151" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B151">
         <v>0</v>
       </c>
       <c r="C151">
-        <v>4990</v>
+        <v>4774.385300757187</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -20008,13 +20005,13 @@
     </row>
     <row r="152" spans="1:41">
       <c r="A152" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B152">
         <v>0</v>
       </c>
       <c r="C152">
-        <v>2250</v>
+        <v>2094.024217383061</v>
       </c>
       <c r="D152">
         <v>0</v>
@@ -20130,13 +20127,13 @@
     </row>
     <row r="153" spans="1:41">
       <c r="A153" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B153">
         <v>0</v>
       </c>
       <c r="C153">
-        <v>5790</v>
+        <v>5642.578115155247</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -20252,13 +20249,13 @@
     </row>
     <row r="154" spans="1:41">
       <c r="A154" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B154">
         <v>0</v>
       </c>
       <c r="C154">
-        <v>5390</v>
+        <v>5122.180090208862</v>
       </c>
       <c r="D154">
         <v>0</v>
@@ -20374,13 +20371,13 @@
     </row>
     <row r="155" spans="1:41">
       <c r="A155" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B155">
         <v>0</v>
       </c>
       <c r="C155">
-        <v>12360</v>
+        <v>11745.7759262897</v>
       </c>
       <c r="D155">
         <v>0</v>
@@ -20496,13 +20493,13 @@
     </row>
     <row r="156" spans="1:41">
       <c r="A156" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B156">
         <v>0</v>
       </c>
       <c r="C156">
-        <v>7290</v>
+        <v>6911.59200404802</v>
       </c>
       <c r="D156">
         <v>0</v>
@@ -20618,13 +20615,13 @@
     </row>
     <row r="157" spans="1:41">
       <c r="A157" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B157">
         <v>1</v>
       </c>
       <c r="C157">
-        <v>760</v>
+        <v>701.4459636783288</v>
       </c>
       <c r="D157">
         <v>0</v>
@@ -20726,7 +20723,7 @@
         <v>0</v>
       </c>
       <c r="AL157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM157">
         <v>0</v>
@@ -20740,13 +20737,13 @@
     </row>
     <row r="158" spans="1:41">
       <c r="A158" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B158">
         <v>0</v>
       </c>
       <c r="C158">
-        <v>5790</v>
+        <v>5745.422744292303</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -20848,7 +20845,7 @@
         <v>0</v>
       </c>
       <c r="AL158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM158">
         <v>0</v>
@@ -20862,13 +20859,13 @@
     </row>
     <row r="159" spans="1:41">
       <c r="A159" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B159">
         <v>0</v>
       </c>
       <c r="C159">
-        <v>3100</v>
+        <v>2999.422762626143</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -20984,13 +20981,13 @@
     </row>
     <row r="160" spans="1:41">
       <c r="A160" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B160">
         <v>0</v>
       </c>
       <c r="C160">
-        <v>3210</v>
+        <v>3156.723844635973</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -21106,13 +21103,13 @@
     </row>
     <row r="161" spans="1:41">
       <c r="A161" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B161">
         <v>0</v>
       </c>
       <c r="C161">
-        <v>6280</v>
+        <v>6051.685746144485</v>
       </c>
       <c r="D161">
         <v>0</v>
@@ -21228,13 +21225,13 @@
     </row>
     <row r="162" spans="1:41">
       <c r="A162" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B162">
         <v>0</v>
       </c>
       <c r="C162">
-        <v>9150</v>
+        <v>8689.96516770511</v>
       </c>
       <c r="D162">
         <v>0</v>
@@ -21350,13 +21347,13 @@
     </row>
     <row r="163" spans="1:41">
       <c r="A163" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B163">
         <v>0</v>
       </c>
       <c r="C163">
-        <v>1690</v>
+        <v>1657.651524528445</v>
       </c>
       <c r="D163">
         <v>0</v>
@@ -21472,13 +21469,13 @@
     </row>
     <row r="164" spans="1:41">
       <c r="A164" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B164">
         <v>0</v>
       </c>
       <c r="C164">
-        <v>6310</v>
+        <v>5322.385306532046</v>
       </c>
       <c r="D164">
         <v>0</v>
@@ -21594,13 +21591,13 @@
     </row>
     <row r="165" spans="1:41">
       <c r="A165" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B165">
         <v>0</v>
       </c>
       <c r="C165">
-        <v>7590</v>
+        <v>7179.116970062444</v>
       </c>
       <c r="D165">
         <v>0</v>
@@ -21716,13 +21713,13 @@
     </row>
     <row r="166" spans="1:41">
       <c r="A166" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B166">
         <v>0</v>
       </c>
-      <c r="C166" t="s">
-        <v>133</v>
+      <c r="C166">
+        <v>0</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -21838,7 +21835,7 @@
     </row>
     <row r="167" spans="1:41">
       <c r="A167" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -21960,13 +21957,13 @@
     </row>
     <row r="168" spans="1:41">
       <c r="A168" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B168">
         <v>0</v>
       </c>
       <c r="C168">
-        <v>2980</v>
+        <v>2995.45235738661</v>
       </c>
       <c r="D168">
         <v>0</v>
@@ -22082,13 +22079,13 @@
     </row>
     <row r="169" spans="1:41">
       <c r="A169" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B169">
         <v>1</v>
       </c>
       <c r="C169">
-        <v>570</v>
+        <v>528.6449273841434</v>
       </c>
       <c r="D169">
         <v>0</v>
@@ -22204,13 +22201,13 @@
     </row>
     <row r="170" spans="1:41">
       <c r="A170" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B170">
         <v>1</v>
       </c>
       <c r="C170">
-        <v>4170</v>
+        <v>3748.449444923865</v>
       </c>
       <c r="D170">
         <v>0</v>
@@ -22326,13 +22323,13 @@
     </row>
     <row r="171" spans="1:41">
       <c r="A171" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B171">
         <v>1</v>
       </c>
       <c r="C171">
-        <v>550</v>
+        <v>513.7390871590731</v>
       </c>
       <c r="D171">
         <v>0</v>
@@ -22448,7 +22445,7 @@
     </row>
     <row r="172" spans="1:41">
       <c r="A172" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -22570,13 +22567,13 @@
     </row>
     <row r="173" spans="1:41">
       <c r="A173" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B173">
         <v>1</v>
       </c>
       <c r="C173">
-        <v>650</v>
+        <v>692.4450379203138</v>
       </c>
       <c r="D173">
         <v>0</v>
@@ -22692,13 +22689,13 @@
     </row>
     <row r="174" spans="1:41">
       <c r="A174" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B174">
         <v>1</v>
       </c>
       <c r="C174">
-        <v>730</v>
+        <v>684.6474015015979</v>
       </c>
       <c r="D174">
         <v>0</v>
@@ -22814,13 +22811,13 @@
     </row>
     <row r="175" spans="1:41">
       <c r="A175" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B175">
         <v>1</v>
       </c>
       <c r="C175">
-        <v>1360</v>
+        <v>1652.714170143609</v>
       </c>
       <c r="D175">
         <v>0</v>
@@ -22936,13 +22933,13 @@
     </row>
     <row r="176" spans="1:41">
       <c r="A176" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B176">
         <v>1</v>
       </c>
       <c r="C176">
-        <v>1330</v>
+        <v>1291.622214254295</v>
       </c>
       <c r="D176">
         <v>0</v>
@@ -23058,13 +23055,13 @@
     </row>
     <row r="177" spans="1:41">
       <c r="A177" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B177">
         <v>1</v>
       </c>
       <c r="C177">
-        <v>250</v>
+        <v>238.8160458251716</v>
       </c>
       <c r="D177">
         <v>0</v>
@@ -23180,13 +23177,13 @@
     </row>
     <row r="178" spans="1:41">
       <c r="A178" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B178">
         <v>1</v>
       </c>
       <c r="C178">
-        <v>410</v>
+        <v>389.9389667216314</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -23302,13 +23299,13 @@
     </row>
     <row r="179" spans="1:41">
       <c r="A179" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B179">
         <v>1</v>
       </c>
-      <c r="C179" t="s">
-        <v>133</v>
+      <c r="C179">
+        <v>0</v>
       </c>
       <c r="D179">
         <v>0</v>
@@ -23424,13 +23421,13 @@
     </row>
     <row r="180" spans="1:41">
       <c r="A180" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B180">
         <v>0</v>
       </c>
       <c r="C180">
-        <v>1050</v>
+        <v>1000.829216794104</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -23546,13 +23543,13 @@
     </row>
     <row r="181" spans="1:41">
       <c r="A181" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B181">
         <v>1</v>
       </c>
       <c r="C181">
-        <v>670</v>
+        <v>683.460336640684</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -23668,13 +23665,13 @@
     </row>
     <row r="182" spans="1:41">
       <c r="A182" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B182">
         <v>1</v>
       </c>
-      <c r="C182" t="s">
-        <v>133</v>
+      <c r="C182">
+        <v>0</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -23790,13 +23787,13 @@
     </row>
     <row r="183" spans="1:41">
       <c r="A183" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B183">
         <v>0</v>
       </c>
       <c r="C183">
-        <v>16900</v>
+        <v>16497.20875646747</v>
       </c>
       <c r="D183">
         <v>0</v>
@@ -23912,13 +23909,13 @@
     </row>
     <row r="184" spans="1:41">
       <c r="A184" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B184">
         <v>0</v>
       </c>
       <c r="C184">
-        <v>14100</v>
+        <v>13646.01994032052</v>
       </c>
       <c r="D184">
         <v>0</v>
@@ -24034,13 +24031,13 @@
     </row>
     <row r="185" spans="1:41">
       <c r="A185" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B185">
         <v>0</v>
       </c>
       <c r="C185">
-        <v>2520</v>
+        <v>2565.957672564996</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -24156,13 +24153,13 @@
     </row>
     <row r="186" spans="1:41">
       <c r="A186" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B186">
         <v>1</v>
       </c>
       <c r="C186">
-        <v>1710</v>
+        <v>1745.10167474004</v>
       </c>
       <c r="D186">
         <v>0</v>
@@ -24278,13 +24275,13 @@
     </row>
     <row r="187" spans="1:41">
       <c r="A187" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B187">
         <v>0</v>
       </c>
       <c r="C187">
-        <v>6440</v>
+        <v>5724.920831644877</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -24400,13 +24397,13 @@
     </row>
     <row r="188" spans="1:41">
       <c r="A188" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B188">
         <v>0</v>
       </c>
       <c r="C188">
-        <v>3290</v>
+        <v>2497.68592515536</v>
       </c>
       <c r="D188">
         <v>0</v>
@@ -24522,13 +24519,13 @@
     </row>
     <row r="189" spans="1:41">
       <c r="A189" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B189">
         <v>0</v>
       </c>
       <c r="C189">
-        <v>5720</v>
+        <v>5558.73713990153</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -24644,13 +24641,13 @@
     </row>
     <row r="190" spans="1:41">
       <c r="A190" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B190">
         <v>1</v>
       </c>
       <c r="C190">
-        <v>970</v>
+        <v>922.8902056569669</v>
       </c>
       <c r="D190">
         <v>0</v>
@@ -24766,13 +24763,13 @@
     </row>
     <row r="191" spans="1:41">
       <c r="A191" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B191">
         <v>1</v>
       </c>
       <c r="C191">
-        <v>1040</v>
+        <v>907.2574180443885</v>
       </c>
       <c r="D191">
         <v>0</v>
@@ -24888,13 +24885,13 @@
     </row>
     <row r="192" spans="1:41">
       <c r="A192" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B192">
         <v>0</v>
       </c>
       <c r="C192">
-        <v>3730</v>
+        <v>3563.299863942833</v>
       </c>
       <c r="D192">
         <v>0</v>
@@ -25010,13 +25007,13 @@
     </row>
     <row r="193" spans="1:41">
       <c r="A193" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B193">
         <v>0</v>
       </c>
       <c r="C193">
-        <v>1520</v>
+        <v>1544.619247249133</v>
       </c>
       <c r="D193">
         <v>0</v>
@@ -25132,13 +25129,13 @@
     </row>
     <row r="194" spans="1:41">
       <c r="A194" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B194">
         <v>0</v>
       </c>
       <c r="C194">
-        <v>1290</v>
+        <v>1028.441086491594</v>
       </c>
       <c r="D194">
         <v>0</v>
@@ -25254,13 +25251,13 @@
     </row>
     <row r="195" spans="1:41">
       <c r="A195" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B195">
         <v>1</v>
       </c>
       <c r="C195">
-        <v>1220</v>
+        <v>1174.054086997531</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -25376,13 +25373,13 @@
     </row>
     <row r="196" spans="1:41">
       <c r="A196" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B196">
         <v>0</v>
       </c>
       <c r="C196">
-        <v>3800</v>
+        <v>3160.08051762368</v>
       </c>
       <c r="D196">
         <v>0</v>
@@ -25498,13 +25495,13 @@
     </row>
     <row r="197" spans="1:41">
       <c r="A197" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B197">
         <v>0</v>
       </c>
       <c r="C197">
-        <v>4110</v>
+        <v>3705.357396390538</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -25620,13 +25617,13 @@
     </row>
     <row r="198" spans="1:41">
       <c r="A198" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B198">
         <v>0</v>
       </c>
       <c r="C198">
-        <v>6532.5</v>
+        <v>6156.863426151393</v>
       </c>
       <c r="D198">
         <v>0</v>
@@ -25742,13 +25739,13 @@
     </row>
     <row r="199" spans="1:41">
       <c r="A199" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B199">
         <v>0</v>
       </c>
       <c r="C199">
-        <v>7590</v>
+        <v>7143.462442008202</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -25864,13 +25861,13 @@
     </row>
     <row r="200" spans="1:41">
       <c r="A200" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B200">
         <v>0</v>
       </c>
       <c r="C200">
-        <v>12510</v>
+        <v>12842.16375691783</v>
       </c>
       <c r="D200">
         <v>0</v>
@@ -25986,13 +25983,13 @@
     </row>
     <row r="201" spans="1:41">
       <c r="A201" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B201">
         <v>0</v>
       </c>
       <c r="C201">
-        <v>5270</v>
+        <v>4972.661200036888</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -26108,13 +26105,13 @@
     </row>
     <row r="202" spans="1:41">
       <c r="A202" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B202">
         <v>0</v>
       </c>
       <c r="C202">
-        <v>2590</v>
+        <v>2201.396847776877</v>
       </c>
       <c r="D202">
         <v>0</v>
@@ -26230,13 +26227,13 @@
     </row>
     <row r="203" spans="1:41">
       <c r="A203" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B203">
         <v>0</v>
       </c>
       <c r="C203">
-        <v>6420</v>
+        <v>5919.20956823756</v>
       </c>
       <c r="D203">
         <v>0</v>
@@ -26352,13 +26349,13 @@
     </row>
     <row r="204" spans="1:41">
       <c r="A204" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B204">
         <v>0</v>
       </c>
       <c r="C204">
-        <v>5810</v>
+        <v>5295.682695961288</v>
       </c>
       <c r="D204">
         <v>0</v>
@@ -26474,13 +26471,13 @@
     </row>
     <row r="205" spans="1:41">
       <c r="A205" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B205">
         <v>0</v>
       </c>
       <c r="C205">
-        <v>12810</v>
+        <v>11993.48398487312</v>
       </c>
       <c r="D205">
         <v>0</v>
@@ -26596,13 +26593,13 @@
     </row>
     <row r="206" spans="1:41">
       <c r="A206" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B206">
         <v>0</v>
       </c>
       <c r="C206">
-        <v>7910</v>
+        <v>7200.731056811853</v>
       </c>
       <c r="D206">
         <v>0</v>
@@ -26718,13 +26715,13 @@
     </row>
     <row r="207" spans="1:41">
       <c r="A207" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B207">
         <v>1</v>
       </c>
       <c r="C207">
-        <v>800</v>
+        <v>720.7128711178943</v>
       </c>
       <c r="D207">
         <v>0</v>
@@ -26826,7 +26823,7 @@
         <v>0</v>
       </c>
       <c r="AL207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM207">
         <v>0</v>
@@ -26840,13 +26837,13 @@
     </row>
     <row r="208" spans="1:41">
       <c r="A208" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B208">
         <v>0</v>
       </c>
       <c r="C208">
-        <v>6020</v>
+        <v>5955.175904294275</v>
       </c>
       <c r="D208">
         <v>0</v>
@@ -26948,7 +26945,7 @@
         <v>0</v>
       </c>
       <c r="AL208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM208">
         <v>0</v>
@@ -26962,13 +26959,13 @@
     </row>
     <row r="209" spans="1:41">
       <c r="A209" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B209">
         <v>0</v>
       </c>
       <c r="C209">
-        <v>3320</v>
+        <v>3056.152683606517</v>
       </c>
       <c r="D209">
         <v>0</v>
@@ -27084,13 +27081,13 @@
     </row>
     <row r="210" spans="1:41">
       <c r="A210" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B210">
         <v>0</v>
       </c>
       <c r="C210">
-        <v>3350</v>
+        <v>3212.740625904757</v>
       </c>
       <c r="D210">
         <v>0</v>
@@ -27206,13 +27203,13 @@
     </row>
     <row r="211" spans="1:41">
       <c r="A211" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B211">
         <v>0</v>
       </c>
       <c r="C211">
-        <v>6640</v>
+        <v>6203.843262938323</v>
       </c>
       <c r="D211">
         <v>0</v>
@@ -27328,13 +27325,13 @@
     </row>
     <row r="212" spans="1:41">
       <c r="A212" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B212">
         <v>0</v>
       </c>
       <c r="C212">
-        <v>9740</v>
+        <v>8785.741384666739</v>
       </c>
       <c r="D212">
         <v>0</v>
@@ -27450,13 +27447,13 @@
     </row>
     <row r="213" spans="1:41">
       <c r="A213" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B213">
         <v>0</v>
       </c>
       <c r="C213">
-        <v>1780</v>
+        <v>1716.389195271215</v>
       </c>
       <c r="D213">
         <v>0</v>
@@ -27572,13 +27569,13 @@
     </row>
     <row r="214" spans="1:41">
       <c r="A214" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B214">
         <v>0</v>
       </c>
       <c r="C214">
-        <v>7010</v>
+        <v>5508.043578828116</v>
       </c>
       <c r="D214">
         <v>0</v>
@@ -27694,13 +27691,13 @@
     </row>
     <row r="215" spans="1:41">
       <c r="A215" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B215">
         <v>0</v>
       </c>
       <c r="C215">
-        <v>7610</v>
+        <v>6978.952586250825</v>
       </c>
       <c r="D215">
         <v>0</v>
@@ -27816,13 +27813,13 @@
     </row>
     <row r="216" spans="1:41">
       <c r="A216" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B216">
         <v>0</v>
       </c>
-      <c r="C216" t="s">
-        <v>133</v>
+      <c r="C216">
+        <v>0</v>
       </c>
       <c r="D216">
         <v>0</v>
@@ -27938,7 +27935,7 @@
     </row>
     <row r="217" spans="1:41">
       <c r="A217" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B217">
         <v>0</v>
@@ -28060,13 +28057,13 @@
     </row>
     <row r="218" spans="1:41">
       <c r="A218" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B218">
         <v>0</v>
       </c>
       <c r="C218">
-        <v>3090</v>
+        <v>3087.12349650562</v>
       </c>
       <c r="D218">
         <v>0</v>
@@ -28182,13 +28179,13 @@
     </row>
     <row r="219" spans="1:41">
       <c r="A219" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B219">
         <v>1</v>
       </c>
       <c r="C219">
-        <v>380</v>
+        <v>335.38915520098</v>
       </c>
       <c r="D219">
         <v>0</v>
@@ -28304,13 +28301,13 @@
     </row>
     <row r="220" spans="1:41">
       <c r="A220" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B220">
         <v>1</v>
       </c>
       <c r="C220">
-        <v>4780</v>
+        <v>3796.882621798447</v>
       </c>
       <c r="D220">
         <v>0</v>
@@ -28426,13 +28423,13 @@
     </row>
     <row r="221" spans="1:41">
       <c r="A221" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B221">
         <v>1</v>
       </c>
       <c r="C221">
-        <v>620</v>
+        <v>534.5063430177229</v>
       </c>
       <c r="D221">
         <v>0</v>
@@ -28548,7 +28545,7 @@
     </row>
     <row r="222" spans="1:41">
       <c r="A222" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B222">
         <v>1</v>
@@ -28670,13 +28667,13 @@
     </row>
     <row r="223" spans="1:41">
       <c r="A223" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B223">
         <v>1</v>
       </c>
       <c r="C223">
-        <v>690</v>
+        <v>711.0361291687414</v>
       </c>
       <c r="D223">
         <v>0</v>
@@ -28792,13 +28789,13 @@
     </row>
     <row r="224" spans="1:41">
       <c r="A224" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B224">
         <v>1</v>
       </c>
       <c r="C224">
-        <v>780</v>
+        <v>680.3923729568069</v>
       </c>
       <c r="D224">
         <v>0</v>
@@ -28914,13 +28911,13 @@
     </row>
     <row r="225" spans="1:41">
       <c r="A225" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B225">
         <v>1</v>
       </c>
       <c r="C225">
-        <v>1450</v>
+        <v>1671.292192516047</v>
       </c>
       <c r="D225">
         <v>99530</v>
@@ -29036,13 +29033,13 @@
     </row>
     <row r="226" spans="1:41">
       <c r="A226" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B226">
         <v>1</v>
       </c>
       <c r="C226">
-        <v>1360</v>
+        <v>1291.415042301529</v>
       </c>
       <c r="D226">
         <v>0</v>
@@ -29158,13 +29155,13 @@
     </row>
     <row r="227" spans="1:41">
       <c r="A227" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B227">
         <v>1</v>
       </c>
       <c r="C227">
-        <v>260</v>
+        <v>242.8459946574492</v>
       </c>
       <c r="D227">
         <v>0</v>
@@ -29280,13 +29277,13 @@
     </row>
     <row r="228" spans="1:41">
       <c r="A228" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B228">
         <v>1</v>
       </c>
       <c r="C228">
-        <v>470</v>
+        <v>419.1838602515346</v>
       </c>
       <c r="D228">
         <v>0</v>
@@ -29402,13 +29399,13 @@
     </row>
     <row r="229" spans="1:41">
       <c r="A229" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B229">
         <v>1</v>
       </c>
-      <c r="C229" t="s">
-        <v>133</v>
+      <c r="C229">
+        <v>0</v>
       </c>
       <c r="D229">
         <v>0</v>
@@ -29524,13 +29521,13 @@
     </row>
     <row r="230" spans="1:41">
       <c r="A230" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B230">
         <v>0</v>
       </c>
       <c r="C230">
-        <v>1130</v>
+        <v>1032.277326842402</v>
       </c>
       <c r="D230">
         <v>0</v>
@@ -29646,13 +29643,13 @@
     </row>
     <row r="231" spans="1:41">
       <c r="A231" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B231">
         <v>1</v>
       </c>
       <c r="C231">
-        <v>700</v>
+        <v>698.3833464078615</v>
       </c>
       <c r="D231">
         <v>0</v>
@@ -29768,13 +29765,13 @@
     </row>
     <row r="232" spans="1:41">
       <c r="A232" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B232">
         <v>1</v>
       </c>
-      <c r="C232" t="s">
-        <v>133</v>
+      <c r="C232">
+        <v>0</v>
       </c>
       <c r="D232">
         <v>0</v>
@@ -29890,13 +29887,13 @@
     </row>
     <row r="233" spans="1:41">
       <c r="A233" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B233">
         <v>0</v>
       </c>
       <c r="C233">
-        <v>18280</v>
+        <v>16778.90077243273</v>
       </c>
       <c r="D233">
         <v>0</v>
@@ -30012,13 +30009,13 @@
     </row>
     <row r="234" spans="1:41">
       <c r="A234" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B234">
         <v>0</v>
       </c>
       <c r="C234">
-        <v>15240</v>
+        <v>14275.34223915434</v>
       </c>
       <c r="D234">
         <v>0</v>
@@ -30134,13 +30131,13 @@
     </row>
     <row r="235" spans="1:41">
       <c r="A235" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B235">
         <v>0</v>
       </c>
       <c r="C235">
-        <v>2910</v>
+        <v>2798.769176485628</v>
       </c>
       <c r="D235">
         <v>0</v>
@@ -30256,13 +30253,13 @@
     </row>
     <row r="236" spans="1:41">
       <c r="A236" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B236">
         <v>1</v>
       </c>
       <c r="C236">
-        <v>1210</v>
+        <v>1778.60982580794</v>
       </c>
       <c r="D236">
         <v>0</v>
@@ -30378,13 +30375,13 @@
     </row>
     <row r="237" spans="1:41">
       <c r="A237" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B237">
         <v>0</v>
       </c>
       <c r="C237">
-        <v>7450</v>
+        <v>5981.580655670775</v>
       </c>
       <c r="D237">
         <v>0</v>
@@ -30500,13 +30497,13 @@
     </row>
     <row r="238" spans="1:41">
       <c r="A238" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B238">
         <v>1</v>
       </c>
       <c r="C238">
-        <v>1110</v>
+        <v>951.3148210424945</v>
       </c>
       <c r="D238">
         <v>0</v>
@@ -30622,13 +30619,13 @@
     </row>
     <row r="239" spans="1:41">
       <c r="A239" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B239">
         <v>0</v>
       </c>
       <c r="C239">
-        <v>2830</v>
+        <v>2286.013198234259</v>
       </c>
       <c r="D239">
         <v>0</v>
@@ -30744,13 +30741,13 @@
     </row>
     <row r="240" spans="1:41">
       <c r="A240" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B240">
         <v>0</v>
       </c>
       <c r="C240">
-        <v>12100</v>
+        <v>11951.20944634967</v>
       </c>
       <c r="D240">
         <v>0</v>
@@ -30866,13 +30863,13 @@
     </row>
     <row r="241" spans="1:41">
       <c r="A241" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B241">
         <v>1</v>
       </c>
       <c r="C241">
-        <v>690</v>
+        <v>720.1523351943922</v>
       </c>
       <c r="D241">
         <v>0</v>
@@ -30988,13 +30985,13 @@
     </row>
     <row r="242" spans="1:41">
       <c r="A242" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B242">
         <v>1</v>
       </c>
       <c r="C242">
-        <v>1020</v>
+        <v>972.7427283025324</v>
       </c>
       <c r="D242">
         <v>0</v>
@@ -31110,13 +31107,13 @@
     </row>
     <row r="243" spans="1:41">
       <c r="A243" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B243">
         <v>1</v>
       </c>
       <c r="C243">
-        <v>980</v>
+        <v>961.3778847738438</v>
       </c>
       <c r="D243">
         <v>0</v>
@@ -31232,13 +31229,13 @@
     </row>
     <row r="244" spans="1:41">
       <c r="A244" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B244">
         <v>0</v>
       </c>
       <c r="C244">
-        <v>14990</v>
+        <v>14561.32616430782</v>
       </c>
       <c r="D244">
         <v>0</v>
@@ -31354,13 +31351,13 @@
     </row>
     <row r="245" spans="1:41">
       <c r="A245" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B245">
         <v>0</v>
       </c>
       <c r="C245">
-        <v>8190</v>
+        <v>7449.08671983612</v>
       </c>
       <c r="D245">
         <v>0</v>
@@ -31476,13 +31473,13 @@
     </row>
     <row r="246" spans="1:41">
       <c r="A246" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B246">
         <v>0</v>
       </c>
       <c r="C246">
-        <v>2590</v>
+        <v>3008.669179463094</v>
       </c>
       <c r="D246">
         <v>0</v>
@@ -31598,13 +31595,13 @@
     </row>
     <row r="247" spans="1:41">
       <c r="A247" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B247">
         <v>0</v>
       </c>
       <c r="C247">
-        <v>10090</v>
+        <v>8993.526001840402</v>
       </c>
       <c r="D247">
         <v>0</v>
@@ -31720,13 +31717,13 @@
     </row>
     <row r="248" spans="1:41">
       <c r="A248" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B248">
         <v>0</v>
       </c>
       <c r="C248">
-        <v>6840</v>
+        <v>6255.426161047989</v>
       </c>
       <c r="D248">
         <v>0</v>
@@ -31842,13 +31839,13 @@
     </row>
     <row r="249" spans="1:41">
       <c r="A249" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B249">
         <v>0</v>
       </c>
       <c r="C249">
-        <v>6110</v>
+        <v>5412.131646018807</v>
       </c>
       <c r="D249">
         <v>280000</v>
@@ -31964,13 +31961,13 @@
     </row>
     <row r="250" spans="1:41">
       <c r="A250" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B250">
         <v>1</v>
       </c>
       <c r="C250">
-        <v>550</v>
+        <v>449.4203771491282</v>
       </c>
       <c r="D250">
         <v>2500000</v>
@@ -32086,13 +32083,13 @@
     </row>
     <row r="251" spans="1:41">
       <c r="A251" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B251">
         <v>0</v>
       </c>
       <c r="C251">
-        <v>3450</v>
+        <v>2612.856880840196</v>
       </c>
       <c r="D251">
         <v>0</v>
@@ -32208,13 +32205,13 @@
     </row>
     <row r="252" spans="1:41">
       <c r="A252" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B252">
         <v>0</v>
       </c>
       <c r="C252">
-        <v>3460</v>
+        <v>3137.260298393558</v>
       </c>
       <c r="D252">
         <v>2500000</v>
@@ -32330,13 +32327,13 @@
     </row>
     <row r="253" spans="1:41">
       <c r="A253" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B253">
         <v>1</v>
       </c>
       <c r="C253">
-        <v>830</v>
+        <v>730.3063521039821</v>
       </c>
       <c r="D253">
         <v>0</v>
@@ -32438,7 +32435,7 @@
         <v>0</v>
       </c>
       <c r="AL253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM253">
         <v>0</v>
@@ -32452,13 +32449,13 @@
     </row>
     <row r="254" spans="1:41">
       <c r="A254" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B254">
         <v>0</v>
       </c>
       <c r="C254">
-        <v>1560</v>
+        <v>1640.18070024053</v>
       </c>
       <c r="D254">
         <v>0</v>
@@ -32574,13 +32571,13 @@
     </row>
     <row r="255" spans="1:41">
       <c r="A255" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B255">
         <v>0</v>
       </c>
       <c r="C255">
-        <v>6840</v>
+        <v>5344.331964200195</v>
       </c>
       <c r="D255">
         <v>0</v>
@@ -32696,13 +32693,13 @@
     </row>
     <row r="256" spans="1:41">
       <c r="A256" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B256">
         <v>0</v>
       </c>
       <c r="C256">
-        <v>1240</v>
+        <v>1060.095015975378</v>
       </c>
       <c r="D256">
         <v>0</v>
@@ -32818,13 +32815,13 @@
     </row>
     <row r="257" spans="1:41">
       <c r="A257" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B257">
         <v>0</v>
       </c>
       <c r="C257">
-        <v>7500</v>
+        <v>6753.607115829548</v>
       </c>
       <c r="D257">
         <v>0</v>
@@ -32940,13 +32937,13 @@
     </row>
     <row r="258" spans="1:41">
       <c r="A258" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B258">
         <v>1</v>
       </c>
       <c r="C258">
-        <v>810</v>
+        <v>707.8672001573369</v>
       </c>
       <c r="D258">
         <v>0</v>
@@ -33062,13 +33059,13 @@
     </row>
     <row r="259" spans="1:41">
       <c r="A259" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B259">
         <v>1</v>
       </c>
       <c r="C259">
-        <v>1390</v>
+        <v>1692.460946584157</v>
       </c>
       <c r="D259">
         <v>2500000</v>
@@ -33184,13 +33181,13 @@
     </row>
     <row r="260" spans="1:41">
       <c r="A260" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B260">
         <v>1</v>
       </c>
       <c r="C260">
-        <v>650</v>
+        <v>558.2093442539386</v>
       </c>
       <c r="D260">
         <v>0</v>
@@ -33306,13 +33303,13 @@
     </row>
     <row r="261" spans="1:41">
       <c r="A261" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B261">
         <v>1</v>
       </c>
       <c r="C261">
-        <v>1230</v>
+        <v>1257.483615623398</v>
       </c>
       <c r="D261">
         <v>0</v>
@@ -33428,13 +33425,13 @@
     </row>
     <row r="262" spans="1:41">
       <c r="A262" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B262">
         <v>1</v>
       </c>
       <c r="C262">
-        <v>770</v>
+        <v>711.3043470146426</v>
       </c>
       <c r="D262">
         <v>0</v>
@@ -33550,13 +33547,13 @@
     </row>
     <row r="263" spans="1:41">
       <c r="A263" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B263">
         <v>0</v>
       </c>
       <c r="C263">
-        <v>1850</v>
+        <v>1775.027517189621</v>
       </c>
       <c r="D263">
         <v>0</v>
@@ -33672,13 +33669,13 @@
     </row>
     <row r="264" spans="1:41">
       <c r="A264" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B264">
         <v>1</v>
       </c>
       <c r="C264">
-        <v>410</v>
+        <v>515.8271637832048</v>
       </c>
       <c r="D264">
         <v>0</v>
@@ -33794,13 +33791,13 @@
     </row>
     <row r="265" spans="1:41">
       <c r="A265" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B265">
         <v>0</v>
       </c>
       <c r="C265">
-        <v>6530</v>
+        <v>5996.49696468919</v>
       </c>
       <c r="D265">
         <v>0</v>
@@ -33916,13 +33913,13 @@
     </row>
     <row r="266" spans="1:41">
       <c r="A266" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B266">
         <v>0</v>
       </c>
       <c r="C266">
-        <v>6310</v>
+        <v>6301.696269820412</v>
       </c>
       <c r="D266">
         <v>0</v>
@@ -34024,7 +34021,7 @@
         <v>0</v>
       </c>
       <c r="AL266">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM266">
         <v>0</v>
@@ -34038,13 +34035,13 @@
     </row>
     <row r="267" spans="1:41">
       <c r="A267" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B267">
         <v>1</v>
       </c>
       <c r="C267">
-        <v>720</v>
+        <v>723.2321880005983</v>
       </c>
       <c r="D267">
         <v>0</v>
@@ -34160,13 +34157,13 @@
     </row>
     <row r="268" spans="1:41">
       <c r="A268" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B268">
         <v>1</v>
       </c>
       <c r="C268">
-        <v>1380</v>
+        <v>1338.716747746975</v>
       </c>
       <c r="D268">
         <v>0</v>
@@ -34282,13 +34279,13 @@
     </row>
     <row r="269" spans="1:41">
       <c r="A269" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B269">
         <v>0</v>
       </c>
       <c r="C269">
-        <v>6330</v>
+        <v>6103.744960203087</v>
       </c>
       <c r="D269">
         <v>0</v>
@@ -34404,13 +34401,13 @@
     </row>
     <row r="270" spans="1:41">
       <c r="A270" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B270">
         <v>0</v>
       </c>
-      <c r="C270" t="s">
-        <v>133</v>
+      <c r="C270">
+        <v>0</v>
       </c>
       <c r="D270">
         <v>0</v>
@@ -34526,13 +34523,13 @@
     </row>
     <row r="271" spans="1:41">
       <c r="A271" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B271">
         <v>1</v>
       </c>
       <c r="C271">
-        <v>1820</v>
+        <v>1782.74173912551</v>
       </c>
       <c r="D271">
         <v>0</v>
@@ -34648,13 +34645,13 @@
     </row>
     <row r="272" spans="1:41">
       <c r="A272" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B272">
         <v>0</v>
       </c>
       <c r="C272">
-        <v>5760</v>
+        <v>5589.325590947018</v>
       </c>
       <c r="D272">
         <v>0</v>
@@ -34770,7 +34767,7 @@
     </row>
     <row r="273" spans="1:41">
       <c r="A273" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B273">
         <v>0</v>
@@ -34892,13 +34889,13 @@
     </row>
     <row r="274" spans="1:41">
       <c r="A274" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B274">
         <v>0</v>
       </c>
       <c r="C274">
-        <v>3560</v>
+        <v>3123.90008935853</v>
       </c>
       <c r="D274">
         <v>0</v>
@@ -35014,13 +35011,13 @@
     </row>
     <row r="275" spans="1:41">
       <c r="A275" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B275">
         <v>0</v>
       </c>
       <c r="C275">
-        <v>1220</v>
+        <v>1002.388731936373</v>
       </c>
       <c r="D275">
         <v>0</v>
@@ -35136,13 +35133,13 @@
     </row>
     <row r="276" spans="1:41">
       <c r="A276" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B276">
         <v>0</v>
       </c>
       <c r="C276">
-        <v>2960</v>
+        <v>2361.056581219794</v>
       </c>
       <c r="D276">
         <v>0</v>
@@ -35258,13 +35255,13 @@
     </row>
     <row r="277" spans="1:41">
       <c r="A277" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B277">
         <v>0</v>
       </c>
       <c r="C277">
-        <v>10160</v>
+        <v>11431.15448084494</v>
       </c>
       <c r="D277">
         <v>0</v>
@@ -35380,13 +35377,13 @@
     </row>
     <row r="278" spans="1:41">
       <c r="A278" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B278">
         <v>0</v>
       </c>
       <c r="C278">
-        <v>630</v>
+        <v>726.6520119370772</v>
       </c>
       <c r="D278">
         <v>0</v>
@@ -35502,13 +35499,13 @@
     </row>
     <row r="279" spans="1:41">
       <c r="A279" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B279">
         <v>0</v>
       </c>
       <c r="C279">
-        <v>1060</v>
+        <v>1024.621364522189</v>
       </c>
       <c r="D279">
         <v>0</v>
@@ -35624,13 +35621,13 @@
     </row>
     <row r="280" spans="1:41">
       <c r="A280" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B280">
         <v>0</v>
       </c>
       <c r="C280">
-        <v>880</v>
+        <v>956.659691840205</v>
       </c>
       <c r="D280">
         <v>0</v>
@@ -35746,13 +35743,13 @@
     </row>
     <row r="281" spans="1:41">
       <c r="A281" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B281">
         <v>0</v>
       </c>
       <c r="C281">
-        <v>14140</v>
+        <v>14722.36632763098</v>
       </c>
       <c r="D281">
         <v>0</v>
@@ -35868,13 +35865,13 @@
     </row>
     <row r="282" spans="1:41">
       <c r="A282" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B282">
         <v>0</v>
       </c>
       <c r="C282">
-        <v>7330</v>
+        <v>7580.275568826287</v>
       </c>
       <c r="D282">
         <v>0</v>
@@ -35990,13 +35987,13 @@
     </row>
     <row r="283" spans="1:41">
       <c r="A283" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B283">
         <v>0</v>
       </c>
       <c r="C283">
-        <v>2410</v>
+        <v>3012.536723186288</v>
       </c>
       <c r="D283">
         <v>0</v>
@@ -36112,13 +36109,13 @@
     </row>
     <row r="284" spans="1:41">
       <c r="A284" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B284">
         <v>0</v>
       </c>
       <c r="C284">
-        <v>10400</v>
+        <v>9219.389700702559</v>
       </c>
       <c r="D284">
         <v>0</v>
@@ -36234,13 +36231,13 @@
     </row>
     <row r="285" spans="1:41">
       <c r="A285" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B285">
         <v>0</v>
       </c>
       <c r="C285">
-        <v>7230</v>
+        <v>6522.736799041846</v>
       </c>
       <c r="D285">
         <v>0</v>
@@ -36356,13 +36353,13 @@
     </row>
     <row r="286" spans="1:41">
       <c r="A286" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B286">
         <v>0</v>
       </c>
       <c r="C286">
-        <v>5970</v>
+        <v>5330.539154475424</v>
       </c>
       <c r="D286">
         <v>0</v>
@@ -36478,13 +36475,13 @@
     </row>
     <row r="287" spans="1:41">
       <c r="A287" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B287">
         <v>0</v>
       </c>
       <c r="C287">
-        <v>600</v>
+        <v>482.6390663355013</v>
       </c>
       <c r="D287">
         <v>0</v>
@@ -36600,13 +36597,13 @@
     </row>
     <row r="288" spans="1:41">
       <c r="A288" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B288">
         <v>0</v>
       </c>
       <c r="C288">
-        <v>3510</v>
+        <v>2735.187532014817</v>
       </c>
       <c r="D288">
         <v>0</v>
@@ -36722,13 +36719,13 @@
     </row>
     <row r="289" spans="1:41">
       <c r="A289" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B289">
         <v>0</v>
       </c>
       <c r="C289">
-        <v>3620</v>
+        <v>3210.869677115934</v>
       </c>
       <c r="D289">
         <v>0</v>
@@ -36844,13 +36841,13 @@
     </row>
     <row r="290" spans="1:41">
       <c r="A290" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B290">
         <v>0</v>
       </c>
       <c r="C290">
-        <v>810</v>
+        <v>729.1196658666737</v>
       </c>
       <c r="D290">
         <v>0</v>
@@ -36952,7 +36949,7 @@
         <v>0</v>
       </c>
       <c r="AL290">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM290">
         <v>0</v>
@@ -36966,13 +36963,13 @@
     </row>
     <row r="291" spans="1:41">
       <c r="A291" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B291">
         <v>0</v>
       </c>
       <c r="C291">
-        <v>1600</v>
+        <v>1751.664428859304</v>
       </c>
       <c r="D291">
         <v>0</v>
@@ -37088,13 +37085,13 @@
     </row>
     <row r="292" spans="1:41">
       <c r="A292" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B292">
         <v>0</v>
       </c>
       <c r="C292">
-        <v>5940</v>
+        <v>5298.103912121626</v>
       </c>
       <c r="D292">
         <v>0</v>
@@ -37210,13 +37207,13 @@
     </row>
     <row r="293" spans="1:41">
       <c r="A293" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B293">
         <v>0</v>
       </c>
       <c r="C293">
-        <v>1290</v>
+        <v>1093.134170274031</v>
       </c>
       <c r="D293">
         <v>0</v>
@@ -37332,13 +37329,13 @@
     </row>
     <row r="294" spans="1:41">
       <c r="A294" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B294">
         <v>0</v>
       </c>
       <c r="C294">
-        <v>7290</v>
+        <v>6487.899081675427</v>
       </c>
       <c r="D294">
         <v>0</v>
@@ -37454,13 +37451,13 @@
     </row>
     <row r="295" spans="1:41">
       <c r="A295" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B295">
         <v>0</v>
       </c>
       <c r="C295">
-        <v>790</v>
+        <v>729.7808175407341</v>
       </c>
       <c r="D295">
         <v>0</v>
@@ -37576,13 +37573,13 @@
     </row>
     <row r="296" spans="1:41">
       <c r="A296" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B296">
         <v>0</v>
       </c>
       <c r="C296">
-        <v>1270</v>
+        <v>1732.587316450496</v>
       </c>
       <c r="D296">
         <v>0</v>
@@ -37698,13 +37695,13 @@
     </row>
     <row r="297" spans="1:41">
       <c r="A297" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B297">
         <v>0</v>
       </c>
       <c r="C297">
-        <v>600</v>
+        <v>579.0880693780265</v>
       </c>
       <c r="D297">
         <v>0</v>
@@ -37820,13 +37817,13 @@
     </row>
     <row r="298" spans="1:41">
       <c r="A298" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B298">
         <v>0</v>
       </c>
       <c r="C298">
-        <v>1200</v>
+        <v>1335.203871985052</v>
       </c>
       <c r="D298">
         <v>0</v>
@@ -37942,13 +37939,13 @@
     </row>
     <row r="299" spans="1:41">
       <c r="A299" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B299">
         <v>0</v>
       </c>
       <c r="C299">
-        <v>780</v>
+        <v>731.9993357350996</v>
       </c>
       <c r="D299">
         <v>0</v>
@@ -38064,13 +38061,13 @@
     </row>
     <row r="300" spans="1:41">
       <c r="A300" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B300">
         <v>0</v>
       </c>
       <c r="C300">
-        <v>1910</v>
+        <v>1836.014008604312</v>
       </c>
       <c r="D300">
         <v>0</v>
@@ -38186,13 +38183,13 @@
     </row>
     <row r="301" spans="1:41">
       <c r="A301" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B301">
         <v>0</v>
       </c>
       <c r="C301">
-        <v>390</v>
+        <v>517.8609592583078</v>
       </c>
       <c r="D301">
         <v>0</v>
@@ -38308,13 +38305,13 @@
     </row>
     <row r="302" spans="1:41">
       <c r="A302" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B302">
         <v>0</v>
       </c>
       <c r="C302">
-        <v>6340</v>
+        <v>6114.227214287786</v>
       </c>
       <c r="D302">
         <v>0</v>
@@ -38430,13 +38427,13 @@
     </row>
     <row r="303" spans="1:41">
       <c r="A303" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B303">
         <v>0</v>
       </c>
       <c r="C303">
-        <v>6480</v>
+        <v>6661.86504232374</v>
       </c>
       <c r="D303">
         <v>0</v>
@@ -38538,7 +38535,7 @@
         <v>0</v>
       </c>
       <c r="AL303">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM303">
         <v>0</v>
@@ -38552,13 +38549,13 @@
     </row>
     <row r="304" spans="1:41">
       <c r="A304" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B304">
         <v>0</v>
       </c>
       <c r="C304">
-        <v>730</v>
+        <v>767.6026452352251</v>
       </c>
       <c r="D304">
         <v>0</v>
@@ -38674,13 +38671,13 @@
     </row>
     <row r="305" spans="1:41">
       <c r="A305" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B305">
         <v>0</v>
       </c>
       <c r="C305">
-        <v>1320</v>
+        <v>1384.519227335143</v>
       </c>
       <c r="D305">
         <v>0</v>
@@ -38796,13 +38793,13 @@
     </row>
     <row r="306" spans="1:41">
       <c r="A306" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B306">
         <v>0</v>
       </c>
       <c r="C306">
-        <v>6067.5</v>
+        <v>6249.151036691844</v>
       </c>
       <c r="D306">
         <v>0</v>
@@ -38918,13 +38915,13 @@
     </row>
     <row r="307" spans="1:41">
       <c r="A307" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B307">
         <v>0</v>
       </c>
-      <c r="C307" t="s">
-        <v>133</v>
+      <c r="C307">
+        <v>0</v>
       </c>
       <c r="D307">
         <v>0</v>
@@ -39040,13 +39037,13 @@
     </row>
     <row r="308" spans="1:41">
       <c r="A308" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B308">
         <v>0</v>
       </c>
       <c r="C308">
-        <v>1980</v>
+        <v>1825.72155898504</v>
       </c>
       <c r="D308">
         <v>0</v>
@@ -39162,13 +39159,13 @@
     </row>
     <row r="309" spans="1:41">
       <c r="A309" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B309">
         <v>0</v>
       </c>
       <c r="C309">
-        <v>5710</v>
+        <v>5741.353911483523</v>
       </c>
       <c r="D309">
         <v>0</v>
@@ -39284,7 +39281,7 @@
     </row>
     <row r="310" spans="1:41">
       <c r="A310" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B310">
         <v>0</v>
@@ -39406,13 +39403,13 @@
     </row>
     <row r="311" spans="1:41">
       <c r="A311" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B311">
         <v>0</v>
       </c>
       <c r="C311">
-        <v>2650</v>
+        <v>2828.88506924235</v>
       </c>
       <c r="D311">
         <v>0</v>
@@ -39528,13 +39525,13 @@
     </row>
     <row r="312" spans="1:41">
       <c r="A312" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B312">
         <v>1</v>
       </c>
       <c r="C312">
-        <v>3770</v>
+        <v>3530.309422482455</v>
       </c>
       <c r="D312">
         <v>0</v>
@@ -39650,13 +39647,13 @@
     </row>
     <row r="313" spans="1:41">
       <c r="A313" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B313">
         <v>1</v>
       </c>
       <c r="C313">
-        <v>1370</v>
+        <v>1062.040157863007</v>
       </c>
       <c r="D313">
         <v>0</v>
@@ -39772,13 +39769,13 @@
     </row>
     <row r="314" spans="1:41">
       <c r="A314" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B314">
         <v>0</v>
       </c>
       <c r="C314">
-        <v>3040</v>
+        <v>2425.561644739583</v>
       </c>
       <c r="D314">
         <v>0</v>
@@ -39894,13 +39891,13 @@
     </row>
     <row r="315" spans="1:41">
       <c r="A315" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B315">
         <v>0</v>
       </c>
       <c r="C315">
-        <v>5140</v>
+        <v>5595.099814079491</v>
       </c>
       <c r="D315">
         <v>0</v>
@@ -40016,13 +40013,13 @@
     </row>
     <row r="316" spans="1:41">
       <c r="A316" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B316">
         <v>0</v>
       </c>
       <c r="C316">
-        <v>8930</v>
+        <v>10965.97426143915</v>
       </c>
       <c r="D316">
         <v>0</v>
@@ -40138,13 +40135,13 @@
     </row>
     <row r="317" spans="1:41">
       <c r="A317" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B317">
         <v>1</v>
       </c>
       <c r="C317">
-        <v>600</v>
+        <v>747.8284752776283</v>
       </c>
       <c r="D317">
         <v>0</v>
@@ -40260,13 +40257,13 @@
     </row>
     <row r="318" spans="1:41">
       <c r="A318" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B318">
         <v>1</v>
       </c>
       <c r="C318">
-        <v>270</v>
+        <v>219.9614977577509</v>
       </c>
       <c r="D318">
         <v>0</v>
@@ -40382,13 +40379,13 @@
     </row>
     <row r="319" spans="1:41">
       <c r="A319" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B319">
         <v>1</v>
       </c>
       <c r="C319">
-        <v>1140</v>
+        <v>1079.630539001193</v>
       </c>
       <c r="D319">
         <v>0</v>
@@ -40504,13 +40501,13 @@
     </row>
     <row r="320" spans="1:41">
       <c r="A320" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B320">
         <v>1</v>
       </c>
       <c r="C320">
-        <v>730</v>
+        <v>869.0586852798759</v>
       </c>
       <c r="D320">
         <v>0</v>
@@ -40626,13 +40623,13 @@
     </row>
     <row r="321" spans="1:41">
       <c r="A321" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B321">
         <v>0</v>
       </c>
       <c r="C321">
-        <v>6460</v>
+        <v>7633.969039669125</v>
       </c>
       <c r="D321">
         <v>0</v>
@@ -40748,13 +40745,13 @@
     </row>
     <row r="322" spans="1:41">
       <c r="A322" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B322">
         <v>0</v>
       </c>
       <c r="C322">
-        <v>10770</v>
+        <v>9509.738189381051</v>
       </c>
       <c r="D322">
         <v>0</v>
@@ -40870,13 +40867,13 @@
     </row>
     <row r="323" spans="1:41">
       <c r="A323" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B323">
         <v>0</v>
       </c>
-      <c r="C323" t="s">
-        <v>133</v>
+      <c r="C323">
+        <v>6550.274372976741</v>
       </c>
       <c r="D323">
         <v>0</v>
@@ -40992,13 +40989,13 @@
     </row>
     <row r="324" spans="1:41">
       <c r="A324" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B324">
         <v>1</v>
       </c>
       <c r="C324">
-        <v>1990</v>
+        <v>0</v>
       </c>
       <c r="D324">
         <v>0</v>
@@ -41114,13 +41111,13 @@
     </row>
     <row r="325" spans="1:41">
       <c r="A325" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B325">
         <v>0</v>
       </c>
       <c r="C325">
-        <v>5810</v>
+        <v>5176.058803160127</v>
       </c>
       <c r="D325">
         <v>0</v>
@@ -41236,13 +41233,13 @@
     </row>
     <row r="326" spans="1:41">
       <c r="A326" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B326">
         <v>0</v>
       </c>
       <c r="C326">
-        <v>3510</v>
+        <v>3382.563653843273</v>
       </c>
       <c r="D326">
         <v>0</v>
@@ -41358,13 +41355,13 @@
     </row>
     <row r="327" spans="1:41">
       <c r="A327" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B327">
         <v>1</v>
       </c>
-      <c r="C327" t="s">
-        <v>133</v>
+      <c r="C327">
+        <v>0</v>
       </c>
       <c r="D327">
         <v>0</v>
@@ -41480,13 +41477,13 @@
     </row>
     <row r="328" spans="1:41">
       <c r="A328" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B328">
         <v>1</v>
       </c>
       <c r="C328">
-        <v>660</v>
+        <v>514.0573067519859</v>
       </c>
       <c r="D328">
         <v>381724</v>
@@ -41602,13 +41599,13 @@
     </row>
     <row r="329" spans="1:41">
       <c r="A329" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B329">
         <v>0</v>
       </c>
       <c r="C329">
-        <v>3570</v>
+        <v>2886.897484630703</v>
       </c>
       <c r="D329">
         <v>0</v>
@@ -41724,13 +41721,13 @@
     </row>
     <row r="330" spans="1:41">
       <c r="A330" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B330">
         <v>0</v>
       </c>
       <c r="C330">
-        <v>3800</v>
+        <v>3242.636921959078</v>
       </c>
       <c r="D330">
         <v>0</v>
@@ -41846,13 +41843,13 @@
     </row>
     <row r="331" spans="1:41">
       <c r="A331" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B331">
         <v>1</v>
       </c>
       <c r="C331">
-        <v>780</v>
+        <v>729.8559996981501</v>
       </c>
       <c r="D331">
         <v>0</v>
@@ -41954,7 +41951,7 @@
         <v>0</v>
       </c>
       <c r="AL331">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM331">
         <v>0</v>
@@ -41968,13 +41965,13 @@
     </row>
     <row r="332" spans="1:41">
       <c r="A332" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B332">
         <v>0</v>
       </c>
       <c r="C332">
-        <v>2110</v>
+        <v>2111.193164269742</v>
       </c>
       <c r="D332">
         <v>0</v>
@@ -42090,13 +42087,13 @@
     </row>
     <row r="333" spans="1:41">
       <c r="A333" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B333">
         <v>0</v>
       </c>
       <c r="C333">
-        <v>1690</v>
+        <v>1875.732161108182</v>
       </c>
       <c r="D333">
         <v>0</v>
@@ -42212,13 +42209,13 @@
     </row>
     <row r="334" spans="1:41">
       <c r="A334" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B334">
         <v>0</v>
       </c>
       <c r="C334">
-        <v>5520</v>
+        <v>5930.948814841904</v>
       </c>
       <c r="D334">
         <v>0</v>
@@ -42334,13 +42331,13 @@
     </row>
     <row r="335" spans="1:41">
       <c r="A335" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B335">
         <v>0</v>
       </c>
       <c r="C335">
-        <v>3930</v>
+        <v>3271.088200372761</v>
       </c>
       <c r="D335">
         <v>0</v>
@@ -42456,13 +42453,13 @@
     </row>
     <row r="336" spans="1:41">
       <c r="A336" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B336">
         <v>0</v>
       </c>
       <c r="C336">
-        <v>1360</v>
+        <v>1129.713195979213</v>
       </c>
       <c r="D336">
         <v>0</v>
@@ -42578,13 +42575,13 @@
     </row>
     <row r="337" spans="1:41">
       <c r="A337" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B337">
         <v>1</v>
       </c>
       <c r="C337">
-        <v>780</v>
+        <v>749.2194349876407</v>
       </c>
       <c r="D337">
         <v>0</v>
@@ -42700,13 +42697,13 @@
     </row>
     <row r="338" spans="1:41">
       <c r="A338" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B338">
         <v>0</v>
       </c>
       <c r="C338">
-        <v>2890</v>
+        <v>3212.81539531051</v>
       </c>
       <c r="D338">
         <v>0</v>
@@ -42822,13 +42819,13 @@
     </row>
     <row r="339" spans="1:41">
       <c r="A339" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B339">
         <v>0</v>
       </c>
       <c r="C339">
-        <v>9410</v>
+        <v>10205.79575322194</v>
       </c>
       <c r="D339">
         <v>0</v>
@@ -42944,13 +42941,13 @@
     </row>
     <row r="340" spans="1:41">
       <c r="A340" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B340">
         <v>1</v>
       </c>
       <c r="C340">
-        <v>490</v>
+        <v>584.2111078769213</v>
       </c>
       <c r="D340">
         <v>0</v>
@@ -43066,13 +43063,13 @@
     </row>
     <row r="341" spans="1:41">
       <c r="A341" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B341">
         <v>1</v>
       </c>
       <c r="C341">
-        <v>770</v>
+        <v>729.6614300490079</v>
       </c>
       <c r="D341">
         <v>0</v>
@@ -43188,13 +43185,13 @@
     </row>
     <row r="342" spans="1:41">
       <c r="A342" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B342">
         <v>0</v>
       </c>
       <c r="C342">
-        <v>2000</v>
+        <v>1895.214690888655</v>
       </c>
       <c r="D342">
         <v>0</v>
@@ -43310,13 +43307,13 @@
     </row>
     <row r="343" spans="1:41">
       <c r="A343" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B343">
         <v>1</v>
       </c>
       <c r="C343">
-        <v>370</v>
+        <v>526.5953412037009</v>
       </c>
       <c r="D343">
         <v>0</v>
@@ -43432,13 +43429,13 @@
     </row>
     <row r="344" spans="1:41">
       <c r="A344" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B344">
         <v>0</v>
       </c>
       <c r="C344">
-        <v>6120</v>
+        <v>6262.368904654469</v>
       </c>
       <c r="D344">
         <v>0</v>
@@ -43554,7 +43551,7 @@
     </row>
     <row r="345" spans="1:41">
       <c r="A345" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B345">
         <v>1</v>
@@ -43676,13 +43673,13 @@
     </row>
     <row r="346" spans="1:41">
       <c r="A346" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B346">
         <v>0</v>
       </c>
       <c r="C346">
-        <v>6640</v>
+        <v>7026.178156858586</v>
       </c>
       <c r="D346">
         <v>0</v>
@@ -43784,7 +43781,7 @@
         <v>0</v>
       </c>
       <c r="AL346">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM346">
         <v>0</v>
@@ -43798,13 +43795,13 @@
     </row>
     <row r="347" spans="1:41">
       <c r="A347" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B347">
         <v>1</v>
       </c>
       <c r="C347">
-        <v>720</v>
+        <v>792.6212731169028</v>
       </c>
       <c r="D347">
         <v>0</v>
@@ -43920,13 +43917,13 @@
     </row>
     <row r="348" spans="1:41">
       <c r="A348" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B348">
         <v>0</v>
       </c>
       <c r="C348">
-        <v>9530</v>
+        <v>10236.89594140222</v>
       </c>
       <c r="D348">
         <v>0</v>
@@ -44042,13 +44039,13 @@
     </row>
     <row r="349" spans="1:41">
       <c r="A349" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B349">
         <v>1</v>
       </c>
       <c r="C349">
-        <v>1270</v>
+        <v>1431.756130822538</v>
       </c>
       <c r="D349">
         <v>0</v>
@@ -44164,13 +44161,13 @@
     </row>
     <row r="350" spans="1:41">
       <c r="A350" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B350">
         <v>0</v>
       </c>
       <c r="C350">
-        <v>5806.666666666667</v>
+        <v>6485.993010466308</v>
       </c>
       <c r="D350">
         <v>0</v>
@@ -44286,13 +44283,13 @@
     </row>
     <row r="351" spans="1:41">
       <c r="A351" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B351">
         <v>0</v>
       </c>
-      <c r="C351" t="s">
-        <v>133</v>
+      <c r="C351">
+        <v>0</v>
       </c>
       <c r="D351">
         <v>0</v>
@@ -44408,13 +44405,13 @@
     </row>
     <row r="352" spans="1:41">
       <c r="A352" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B352">
         <v>1</v>
       </c>
       <c r="C352">
-        <v>2130</v>
+        <v>1866.22170375365</v>
       </c>
       <c r="D352">
         <v>0</v>
@@ -44530,13 +44527,13 @@
     </row>
     <row r="353" spans="1:41">
       <c r="A353" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B353">
         <v>0</v>
       </c>
       <c r="C353">
-        <v>5690</v>
+        <v>5916.126072105049</v>
       </c>
       <c r="D353">
         <v>0</v>
@@ -44652,7 +44649,7 @@
     </row>
     <row r="354" spans="1:41">
       <c r="A354" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B354">
         <v>0</v>
@@ -44774,13 +44771,13 @@
     </row>
     <row r="355" spans="1:41">
       <c r="A355" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B355">
         <v>1</v>
       </c>
       <c r="C355">
-        <v>610</v>
+        <v>649.4459389945755</v>
       </c>
       <c r="D355">
         <v>0</v>
@@ -44896,13 +44893,13 @@
     </row>
     <row r="356" spans="1:41">
       <c r="A356" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B356">
         <v>0</v>
       </c>
       <c r="C356">
-        <v>11180</v>
+        <v>14062.73378768283</v>
       </c>
       <c r="D356">
         <v>0</v>
@@ -45018,13 +45015,13 @@
     </row>
     <row r="357" spans="1:41">
       <c r="A357" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B357">
         <v>0</v>
       </c>
       <c r="C357">
-        <v>2310</v>
+        <v>2903.79540928151</v>
       </c>
       <c r="D357">
         <v>0</v>
@@ -45140,13 +45137,13 @@
     </row>
     <row r="358" spans="1:41">
       <c r="A358" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B358">
         <v>1</v>
       </c>
       <c r="C358">
-        <v>660</v>
+        <v>909.5979669529498</v>
       </c>
       <c r="D358">
         <v>0</v>
@@ -45262,13 +45259,13 @@
     </row>
     <row r="359" spans="1:41">
       <c r="A359" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B359">
         <v>0</v>
       </c>
       <c r="C359">
-        <v>12360</v>
+        <v>14705.61688179569</v>
       </c>
       <c r="D359">
         <v>0</v>
@@ -45384,13 +45381,13 @@
     </row>
     <row r="360" spans="1:41">
       <c r="A360" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B360">
         <v>0</v>
       </c>
       <c r="C360">
-        <v>18890</v>
+        <v>22666.28622740736</v>
       </c>
       <c r="D360">
         <v>0</v>
@@ -45506,13 +45503,13 @@
     </row>
     <row r="361" spans="1:41">
       <c r="A361" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B361">
         <v>0</v>
       </c>
       <c r="C361">
-        <v>31810</v>
+        <v>34459.20571522378</v>
       </c>
       <c r="D361">
         <v>0</v>
@@ -45628,13 +45625,13 @@
     </row>
     <row r="362" spans="1:41">
       <c r="A362" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B362">
         <v>0</v>
       </c>
       <c r="C362">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="D362">
         <v>0</v>
@@ -45750,13 +45747,13 @@
     </row>
     <row r="363" spans="1:41">
       <c r="A363" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B363">
         <v>0</v>
       </c>
       <c r="C363">
-        <v>2470</v>
+        <v>2456.306188142903</v>
       </c>
       <c r="D363">
         <v>0</v>
@@ -45872,13 +45869,13 @@
     </row>
     <row r="364" spans="1:41">
       <c r="A364" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B364">
         <v>0</v>
       </c>
       <c r="C364">
-        <v>3750</v>
+        <v>3917.379675657729</v>
       </c>
       <c r="D364">
         <v>0</v>
@@ -45994,13 +45991,13 @@
     </row>
     <row r="365" spans="1:41">
       <c r="A365" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B365">
         <v>0</v>
       </c>
       <c r="C365">
-        <v>7580</v>
+        <v>8009.042181180632</v>
       </c>
       <c r="D365">
         <v>0</v>

--- a/output/cáritas.xlsx
+++ b/output/cáritas.xlsx
@@ -6591,7 +6591,7 @@
         <v>1</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>322.4182544241485</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>0</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>2235.045836135583</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -9888,7 +9888,7 @@
         <v>781.1535935570469</v>
       </c>
       <c r="D69">
-        <v>335808</v>
+        <v>0</v>
       </c>
       <c r="E69">
         <v>551836</v>
@@ -11227,7 +11227,7 @@
         <v>1</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>345.2661148508273</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -12813,7 +12813,7 @@
         <v>1</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>298.44</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -13423,7 +13423,7 @@
         <v>1</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>1402.3</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -17937,7 +17937,7 @@
         <v>0</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>2580.369788543324</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -21719,7 +21719,7 @@
         <v>0</v>
       </c>
       <c r="C166">
-        <v>0</v>
+        <v>4125.78</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -21841,7 +21841,7 @@
         <v>0</v>
       </c>
       <c r="C167">
-        <v>0</v>
+        <v>2675.677541978231</v>
       </c>
       <c r="D167">
         <v>0</v>
@@ -22451,7 +22451,7 @@
         <v>1</v>
       </c>
       <c r="C172">
-        <v>0</v>
+        <v>357.5982958925156</v>
       </c>
       <c r="D172">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>1</v>
       </c>
       <c r="C179">
-        <v>0</v>
+        <v>417.09</v>
       </c>
       <c r="D179">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>1</v>
       </c>
       <c r="C182">
-        <v>0</v>
+        <v>1615.45</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="E188">
-        <v>421445</v>
+        <v>322661.7777777778</v>
       </c>
       <c r="F188">
         <v>0</v>
@@ -24531,7 +24531,7 @@
         <v>0</v>
       </c>
       <c r="E189">
-        <v>145461.65</v>
+        <v>0</v>
       </c>
       <c r="F189">
         <v>0</v>
@@ -24653,7 +24653,7 @@
         <v>0</v>
       </c>
       <c r="E190">
-        <v>189732.86</v>
+        <v>322661.7777777778</v>
       </c>
       <c r="F190">
         <v>0</v>
@@ -24775,7 +24775,7 @@
         <v>0</v>
       </c>
       <c r="E191">
-        <v>279459.37</v>
+        <v>322661.7777777778</v>
       </c>
       <c r="F191">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="E192">
-        <v>49535</v>
+        <v>322661.7777777778</v>
       </c>
       <c r="F192">
         <v>0</v>
@@ -25019,7 +25019,7 @@
         <v>0</v>
       </c>
       <c r="E193">
-        <v>192490.09</v>
+        <v>322661.7777777778</v>
       </c>
       <c r="F193">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="E194">
-        <v>67000</v>
+        <v>322661.7777777778</v>
       </c>
       <c r="F194">
         <v>0</v>
@@ -25263,7 +25263,7 @@
         <v>0</v>
       </c>
       <c r="E195">
-        <v>75000</v>
+        <v>322661.7777777778</v>
       </c>
       <c r="F195">
         <v>0</v>
@@ -25385,7 +25385,7 @@
         <v>0</v>
       </c>
       <c r="E196">
-        <v>103737</v>
+        <v>78140.5</v>
       </c>
       <c r="F196">
         <v>0</v>
@@ -25507,7 +25507,7 @@
         <v>0</v>
       </c>
       <c r="E197">
-        <v>85712.5</v>
+        <v>322661.7777777778</v>
       </c>
       <c r="F197">
         <v>0</v>
@@ -25629,7 +25629,7 @@
         <v>0</v>
       </c>
       <c r="E198">
-        <v>12500</v>
+        <v>78140.5</v>
       </c>
       <c r="F198">
         <v>0</v>
@@ -25751,7 +25751,7 @@
         <v>0</v>
       </c>
       <c r="E199">
-        <v>37500</v>
+        <v>78140.5</v>
       </c>
       <c r="F199">
         <v>0</v>
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E200">
-        <v>52500</v>
+        <v>78140.5</v>
       </c>
       <c r="F200">
         <v>0</v>
@@ -25995,7 +25995,7 @@
         <v>0</v>
       </c>
       <c r="E201">
-        <v>25000</v>
+        <v>78140.5</v>
       </c>
       <c r="F201">
         <v>0</v>
@@ -26117,7 +26117,7 @@
         <v>0</v>
       </c>
       <c r="E202">
-        <v>688718.525</v>
+        <v>822514.5714285715</v>
       </c>
       <c r="F202">
         <v>0</v>
@@ -26239,7 +26239,7 @@
         <v>0</v>
       </c>
       <c r="E203">
-        <v>185127.775</v>
+        <v>822514.5714285715</v>
       </c>
       <c r="F203">
         <v>0</v>
@@ -26361,7 +26361,7 @@
         <v>0</v>
       </c>
       <c r="E204">
-        <v>223392.65</v>
+        <v>822514.5714285715</v>
       </c>
       <c r="F204">
         <v>0</v>
@@ -26483,7 +26483,7 @@
         <v>0</v>
       </c>
       <c r="E205">
-        <v>211500.95</v>
+        <v>822514.5714285715</v>
       </c>
       <c r="F205">
         <v>0</v>
@@ -26605,7 +26605,7 @@
         <v>0</v>
       </c>
       <c r="E206">
-        <v>327359.195</v>
+        <v>822514.5714285715</v>
       </c>
       <c r="F206">
         <v>0</v>
@@ -26727,7 +26727,7 @@
         <v>0</v>
       </c>
       <c r="E207">
-        <v>1596951.595</v>
+        <v>952686.5555555555</v>
       </c>
       <c r="F207">
         <v>0</v>
@@ -26849,7 +26849,7 @@
         <v>0</v>
       </c>
       <c r="E208">
-        <v>458397.95</v>
+        <v>952686.5555555555</v>
       </c>
       <c r="F208">
         <v>0</v>
@@ -26971,7 +26971,7 @@
         <v>0</v>
       </c>
       <c r="E209">
-        <v>89567.185</v>
+        <v>952686.5555555555</v>
       </c>
       <c r="F209">
         <v>0</v>
@@ -27093,7 +27093,7 @@
         <v>0</v>
       </c>
       <c r="E210">
-        <v>50000</v>
+        <v>952686.5555555555</v>
       </c>
       <c r="F210">
         <v>0</v>
@@ -27215,7 +27215,7 @@
         <v>0</v>
       </c>
       <c r="E211">
-        <v>92822.49000000001</v>
+        <v>952686.5555555555</v>
       </c>
       <c r="F211">
         <v>0</v>
@@ -27337,7 +27337,7 @@
         <v>0</v>
       </c>
       <c r="E212">
-        <v>24465</v>
+        <v>952686.5555555555</v>
       </c>
       <c r="F212">
         <v>0</v>
@@ -27459,7 +27459,7 @@
         <v>0</v>
       </c>
       <c r="E213">
-        <v>94032.5</v>
+        <v>952686.5555555555</v>
       </c>
       <c r="F213">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="E214">
-        <v>150000</v>
+        <v>376195.6666666667</v>
       </c>
       <c r="F214">
         <v>0</v>
@@ -27703,7 +27703,7 @@
         <v>0</v>
       </c>
       <c r="E215">
-        <v>223032.62</v>
+        <v>376195.6666666667</v>
       </c>
       <c r="F215">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="C216">
-        <v>0</v>
+        <v>1526.54</v>
       </c>
       <c r="D216">
         <v>0</v>
       </c>
       <c r="E216">
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="F216">
         <v>0</v>
@@ -27941,13 +27941,13 @@
         <v>0</v>
       </c>
       <c r="C217">
-        <v>0</v>
+        <v>2670.127177203784</v>
       </c>
       <c r="D217">
         <v>0</v>
       </c>
       <c r="E217">
-        <v>353338.68</v>
+        <v>376195.6666666667</v>
       </c>
       <c r="F217">
         <v>0</v>
@@ -28069,7 +28069,7 @@
         <v>0</v>
       </c>
       <c r="E218">
-        <v>31487.29</v>
+        <v>105762.5</v>
       </c>
       <c r="F218">
         <v>0</v>
@@ -28191,7 +28191,7 @@
         <v>0</v>
       </c>
       <c r="E219">
-        <v>36750</v>
+        <v>0</v>
       </c>
       <c r="F219">
         <v>0</v>
@@ -28313,7 +28313,7 @@
         <v>0</v>
       </c>
       <c r="E220">
-        <v>29552.225</v>
+        <v>474488</v>
       </c>
       <c r="F220">
         <v>0</v>
@@ -28435,7 +28435,7 @@
         <v>0</v>
       </c>
       <c r="E221">
-        <v>80157.255</v>
+        <v>474488</v>
       </c>
       <c r="F221">
         <v>0</v>
@@ -28551,13 +28551,13 @@
         <v>1</v>
       </c>
       <c r="C222">
-        <v>0</v>
+        <v>375.2191755030593</v>
       </c>
       <c r="D222">
         <v>0</v>
       </c>
       <c r="E222">
-        <v>425425.585</v>
+        <v>474488</v>
       </c>
       <c r="F222">
         <v>0</v>
@@ -28679,7 +28679,7 @@
         <v>0</v>
       </c>
       <c r="E223">
-        <v>41339.77</v>
+        <v>149063.8571428571</v>
       </c>
       <c r="F223">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="E224">
-        <v>265464.93</v>
+        <v>149063.8571428571</v>
       </c>
       <c r="F224">
         <v>0</v>
@@ -28923,7 +28923,7 @@
         <v>99530</v>
       </c>
       <c r="E225">
-        <v>191551.01</v>
+        <v>149063.8571428571</v>
       </c>
       <c r="F225">
         <v>0</v>
@@ -29045,7 +29045,7 @@
         <v>0</v>
       </c>
       <c r="E226">
-        <v>84607</v>
+        <v>149063.8571428571</v>
       </c>
       <c r="F226">
         <v>0</v>
@@ -29167,7 +29167,7 @@
         <v>0</v>
       </c>
       <c r="E227">
-        <v>36720.145</v>
+        <v>565487.375</v>
       </c>
       <c r="F227">
         <v>0</v>
@@ -29289,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="E228">
-        <v>258075.855</v>
+        <v>565487.375</v>
       </c>
       <c r="F228">
         <v>0</v>
@@ -29405,13 +29405,13 @@
         <v>1</v>
       </c>
       <c r="C229">
-        <v>0</v>
+        <v>343.26</v>
       </c>
       <c r="D229">
         <v>0</v>
       </c>
       <c r="E229">
-        <v>70705</v>
+        <v>565487.375</v>
       </c>
       <c r="F229">
         <v>0</v>
@@ -29533,7 +29533,7 @@
         <v>0</v>
       </c>
       <c r="E230">
-        <v>154730.5</v>
+        <v>565487.375</v>
       </c>
       <c r="F230">
         <v>0</v>
@@ -29655,7 +29655,7 @@
         <v>0</v>
       </c>
       <c r="E231">
-        <v>110469.515</v>
+        <v>565487.375</v>
       </c>
       <c r="F231">
         <v>0</v>
@@ -29771,13 +29771,13 @@
         <v>1</v>
       </c>
       <c r="C232">
-        <v>0</v>
+        <v>1634.83</v>
       </c>
       <c r="D232">
         <v>0</v>
       </c>
       <c r="E232">
-        <v>91919</v>
+        <v>565487.375</v>
       </c>
       <c r="F232">
         <v>0</v>
@@ -29899,7 +29899,7 @@
         <v>0</v>
       </c>
       <c r="E233">
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="F233">
         <v>0</v>
@@ -30021,7 +30021,7 @@
         <v>0</v>
       </c>
       <c r="E234">
-        <v>6500</v>
+        <v>78140.5</v>
       </c>
       <c r="F234">
         <v>0</v>
@@ -30143,7 +30143,7 @@
         <v>0</v>
       </c>
       <c r="E235">
-        <v>10000</v>
+        <v>78140.5</v>
       </c>
       <c r="F235">
         <v>0</v>
@@ -30265,7 +30265,7 @@
         <v>0</v>
       </c>
       <c r="E236">
-        <v>196248.75</v>
+        <v>565487.375</v>
       </c>
       <c r="F236">
         <v>0</v>
@@ -30387,7 +30387,7 @@
         <v>0</v>
       </c>
       <c r="E237">
-        <v>5000</v>
+        <v>322661.7777777778</v>
       </c>
       <c r="F237">
         <v>0</v>
@@ -34407,7 +34407,7 @@
         <v>0</v>
       </c>
       <c r="C270">
-        <v>0</v>
+        <v>1366.25</v>
       </c>
       <c r="D270">
         <v>0</v>
@@ -34773,7 +34773,7 @@
         <v>0</v>
       </c>
       <c r="C273">
-        <v>0</v>
+        <v>2603.521013626997</v>
       </c>
       <c r="D273">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>314</v>
       </c>
       <c r="B275">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C275">
         <v>1002.388731936373</v>
@@ -35023,7 +35023,7 @@
         <v>0</v>
       </c>
       <c r="E275">
-        <v>279010</v>
+        <v>279459.37</v>
       </c>
       <c r="F275">
         <v>0</v>
@@ -35145,7 +35145,7 @@
         <v>0</v>
       </c>
       <c r="E276">
-        <v>356502.5</v>
+        <v>688718.525</v>
       </c>
       <c r="F276">
         <v>0</v>
@@ -35267,7 +35267,7 @@
         <v>0</v>
       </c>
       <c r="E277">
-        <v>142603.5</v>
+        <v>211500.95</v>
       </c>
       <c r="F277">
         <v>0</v>
@@ -35380,7 +35380,7 @@
         <v>317</v>
       </c>
       <c r="B278">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C278">
         <v>726.6520119370772</v>
@@ -35389,7 +35389,7 @@
         <v>0</v>
       </c>
       <c r="E278">
-        <v>202212.5</v>
+        <v>41339.77</v>
       </c>
       <c r="F278">
         <v>0</v>
@@ -35502,7 +35502,7 @@
         <v>318</v>
       </c>
       <c r="B279">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C279">
         <v>1024.621364522189</v>
@@ -35511,7 +35511,7 @@
         <v>0</v>
       </c>
       <c r="E279">
-        <v>539436</v>
+        <v>189732.86</v>
       </c>
       <c r="F279">
         <v>0</v>
@@ -35624,7 +35624,7 @@
         <v>319</v>
       </c>
       <c r="B280">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C280">
         <v>956.659691840205</v>
@@ -35633,7 +35633,7 @@
         <v>0</v>
       </c>
       <c r="E280">
-        <v>136236</v>
+        <v>0</v>
       </c>
       <c r="F280">
         <v>0</v>
@@ -35755,7 +35755,7 @@
         <v>0</v>
       </c>
       <c r="E281">
-        <v>22500</v>
+        <v>0</v>
       </c>
       <c r="F281">
         <v>0</v>
@@ -35877,7 +35877,7 @@
         <v>0</v>
       </c>
       <c r="E282">
-        <v>127974</v>
+        <v>327359.195</v>
       </c>
       <c r="F282">
         <v>0</v>
@@ -35999,7 +35999,7 @@
         <v>0</v>
       </c>
       <c r="E283">
-        <v>548976.5</v>
+        <v>0</v>
       </c>
       <c r="F283">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>0</v>
       </c>
       <c r="E284">
-        <v>72990</v>
+        <v>24465</v>
       </c>
       <c r="F284">
         <v>0</v>
@@ -36243,7 +36243,7 @@
         <v>0</v>
       </c>
       <c r="E285">
-        <v>59655</v>
+        <v>92822.49000000001</v>
       </c>
       <c r="F285">
         <v>0</v>
@@ -36365,7 +36365,7 @@
         <v>0</v>
       </c>
       <c r="E286">
-        <v>144825</v>
+        <v>223392.65</v>
       </c>
       <c r="F286">
         <v>0</v>
@@ -36478,7 +36478,7 @@
         <v>326</v>
       </c>
       <c r="B287">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C287">
         <v>482.6390663355013</v>
@@ -36487,7 +36487,7 @@
         <v>0</v>
       </c>
       <c r="E287">
-        <v>770735.5</v>
+        <v>258075.855</v>
       </c>
       <c r="F287">
         <v>0</v>
@@ -36609,7 +36609,7 @@
         <v>0</v>
       </c>
       <c r="E288">
-        <v>441067</v>
+        <v>421445</v>
       </c>
       <c r="F288">
         <v>0</v>
@@ -36731,7 +36731,7 @@
         <v>0</v>
       </c>
       <c r="E289">
-        <v>396295.5</v>
+        <v>89567.185</v>
       </c>
       <c r="F289">
         <v>0</v>
@@ -36844,7 +36844,7 @@
         <v>329</v>
       </c>
       <c r="B290">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C290">
         <v>729.1196658666737</v>
@@ -36853,7 +36853,7 @@
         <v>0</v>
       </c>
       <c r="E290">
-        <v>485846</v>
+        <v>1596951.595</v>
       </c>
       <c r="F290">
         <v>0</v>
@@ -36975,7 +36975,7 @@
         <v>0</v>
       </c>
       <c r="E291">
-        <v>95299</v>
+        <v>192490.09</v>
       </c>
       <c r="F291">
         <v>0</v>
@@ -37097,7 +37097,7 @@
         <v>0</v>
       </c>
       <c r="E292">
-        <v>365772.5</v>
+        <v>150000</v>
       </c>
       <c r="F292">
         <v>0</v>
@@ -37219,7 +37219,7 @@
         <v>0</v>
       </c>
       <c r="E293">
-        <v>130750.5</v>
+        <v>154730.5</v>
       </c>
       <c r="F293">
         <v>0</v>
@@ -37341,7 +37341,7 @@
         <v>0</v>
       </c>
       <c r="E294">
-        <v>167485</v>
+        <v>223032.62</v>
       </c>
       <c r="F294">
         <v>0</v>
@@ -37454,7 +37454,7 @@
         <v>334</v>
       </c>
       <c r="B295">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C295">
         <v>729.7808175407341</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="E295">
-        <v>96223</v>
+        <v>265464.93</v>
       </c>
       <c r="F295">
         <v>0</v>
@@ -37576,7 +37576,7 @@
         <v>335</v>
       </c>
       <c r="B296">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C296">
         <v>1732.587316450496</v>
@@ -37585,7 +37585,7 @@
         <v>0</v>
       </c>
       <c r="E296">
-        <v>488699.5</v>
+        <v>191551.01</v>
       </c>
       <c r="F296">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>336</v>
       </c>
       <c r="B297">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C297">
         <v>579.0880693780265</v>
@@ -37707,7 +37707,7 @@
         <v>0</v>
       </c>
       <c r="E297">
-        <v>80377</v>
+        <v>80157.255</v>
       </c>
       <c r="F297">
         <v>0</v>
@@ -37820,7 +37820,7 @@
         <v>337</v>
       </c>
       <c r="B298">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C298">
         <v>1335.203871985052</v>
@@ -37829,7 +37829,7 @@
         <v>0</v>
       </c>
       <c r="E298">
-        <v>115000</v>
+        <v>75000</v>
       </c>
       <c r="F298">
         <v>0</v>
@@ -37942,7 +37942,7 @@
         <v>338</v>
       </c>
       <c r="B299">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C299">
         <v>731.9993357350996</v>
@@ -37951,7 +37951,7 @@
         <v>0</v>
       </c>
       <c r="E299">
-        <v>400000</v>
+        <v>0</v>
       </c>
       <c r="F299">
         <v>0</v>
@@ -38073,7 +38073,7 @@
         <v>0</v>
       </c>
       <c r="E300">
-        <v>61998.5</v>
+        <v>94032.5</v>
       </c>
       <c r="F300">
         <v>0</v>
@@ -38186,7 +38186,7 @@
         <v>340</v>
       </c>
       <c r="B301">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C301">
         <v>517.8609592583078</v>
@@ -38195,7 +38195,7 @@
         <v>0</v>
       </c>
       <c r="E301">
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="F301">
         <v>0</v>
@@ -38317,7 +38317,7 @@
         <v>0</v>
       </c>
       <c r="E302">
-        <v>210960</v>
+        <v>185127.775</v>
       </c>
       <c r="F302">
         <v>0</v>
@@ -38439,7 +38439,7 @@
         <v>0</v>
       </c>
       <c r="E303">
-        <v>219744.5</v>
+        <v>458397.95</v>
       </c>
       <c r="F303">
         <v>0</v>
@@ -38552,7 +38552,7 @@
         <v>343</v>
       </c>
       <c r="B304">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C304">
         <v>767.6026452352251</v>
@@ -38561,7 +38561,7 @@
         <v>0</v>
       </c>
       <c r="E304">
-        <v>180741.5</v>
+        <v>110469.515</v>
       </c>
       <c r="F304">
         <v>0</v>
@@ -38674,7 +38674,7 @@
         <v>344</v>
       </c>
       <c r="B305">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C305">
         <v>1384.519227335143</v>
@@ -38683,7 +38683,7 @@
         <v>0</v>
       </c>
       <c r="E305">
-        <v>179638.5</v>
+        <v>84607</v>
       </c>
       <c r="F305">
         <v>0</v>
@@ -38805,7 +38805,7 @@
         <v>0</v>
       </c>
       <c r="E306">
-        <v>50000</v>
+        <v>12500</v>
       </c>
       <c r="F306">
         <v>0</v>
@@ -38921,13 +38921,13 @@
         <v>0</v>
       </c>
       <c r="C307">
-        <v>0</v>
+        <v>1404.51</v>
       </c>
       <c r="D307">
         <v>0</v>
       </c>
       <c r="E307">
-        <v>65000</v>
+        <v>35000</v>
       </c>
       <c r="F307">
         <v>0</v>
@@ -39040,7 +39040,7 @@
         <v>347</v>
       </c>
       <c r="B308">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C308">
         <v>1825.72155898504</v>
@@ -39049,7 +39049,7 @@
         <v>0</v>
       </c>
       <c r="E308">
-        <v>434456</v>
+        <v>196248.75</v>
       </c>
       <c r="F308">
         <v>0</v>
@@ -39171,7 +39171,7 @@
         <v>0</v>
       </c>
       <c r="E309">
-        <v>205358.5</v>
+        <v>145461.65</v>
       </c>
       <c r="F309">
         <v>0</v>
@@ -39287,13 +39287,13 @@
         <v>0</v>
       </c>
       <c r="C310">
-        <v>0</v>
+        <v>2631.811984847832</v>
       </c>
       <c r="D310">
         <v>0</v>
       </c>
       <c r="E310">
-        <v>155040.5</v>
+        <v>353338.68</v>
       </c>
       <c r="F310">
         <v>0</v>
@@ -39415,7 +39415,7 @@
         <v>0</v>
       </c>
       <c r="E311">
-        <v>70750</v>
+        <v>103737</v>
       </c>
       <c r="F311">
         <v>0</v>
@@ -40995,7 +40995,7 @@
         <v>1</v>
       </c>
       <c r="C324">
-        <v>0</v>
+        <v>2316.31</v>
       </c>
       <c r="D324">
         <v>0</v>
@@ -41361,7 +41361,7 @@
         <v>1</v>
       </c>
       <c r="C327">
-        <v>0</v>
+        <v>469.23</v>
       </c>
       <c r="D327">
         <v>0</v>
@@ -43557,7 +43557,7 @@
         <v>1</v>
       </c>
       <c r="C345">
-        <v>0</v>
+        <v>407.2896431385426</v>
       </c>
       <c r="D345">
         <v>0</v>
@@ -44289,7 +44289,7 @@
         <v>0</v>
       </c>
       <c r="C351">
-        <v>0</v>
+        <v>941.02</v>
       </c>
       <c r="D351">
         <v>0</v>
@@ -44655,7 +44655,7 @@
         <v>0</v>
       </c>
       <c r="C354">
-        <v>0</v>
+        <v>2694.5225262147</v>
       </c>
       <c r="D354">
         <v>0</v>
@@ -45631,7 +45631,7 @@
         <v>0</v>
       </c>
       <c r="C362">
-        <v>0</v>
+        <v>171.03</v>
       </c>
       <c r="D362">
         <v>0</v>
